--- a/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
@@ -2463,12 +2463,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8801070002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>NARANJO CITRUS SINENSIS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2504,7 +2504,7 @@
         <v>253.44</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -2516,50 +2516,50 @@
         <v>2.9</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>293.33</v>
+        <v>0</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T22" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8801070002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>NARANJO CITRUS SINENSIS</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2595,7 +2595,7 @@
         <v>253.44</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -2607,38 +2607,38 @@
         <v>2.9</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>0</v>
+        <v>293.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T23" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5739,12 +5739,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020009</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>CEREZO PICOTA</t>
+          <t>MELOCOTONERO SPRING CREST</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -5830,12 +5830,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020009</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO SPRING CREST</t>
+          <t>CEREZO PICOTA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -5921,17 +5921,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>70LD18</t>
+          <t>90LD18</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -6012,12 +6012,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8401020030</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -6103,17 +6103,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020030</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>MANZANO GOLDEN</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>90LD18</t>
+          <t>70LD18</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -14111,12 +14111,12 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>8401020034</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON CARSON</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -14167,7 +14167,7 @@
         <v>-1</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q150" s="4" t="n">
         <v>0</v>
@@ -14293,12 +14293,12 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020034</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>MELOCOTON CARSON</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -14349,7 +14349,7 @@
         <v>-1</v>
       </c>
       <c r="P152" s="4" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q152" s="4" t="n">
         <v>0</v>
@@ -16113,12 +16113,12 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -16148,10 +16148,10 @@
         <v>3</v>
       </c>
       <c r="I172" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J172" s="4" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K172" s="4" t="n">
         <v>150</v>
@@ -16204,12 +16204,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -16239,10 +16239,10 @@
         <v>3</v>
       </c>
       <c r="I173" s="4" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J173" s="4" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K173" s="4" t="n">
         <v>150</v>
@@ -17205,182 +17205,182 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>8102040003</t>
+          <t>8804250003</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS NIGRA</t>
+          <t>JASMINUM POLYANTHUM ESPALDERA</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D184" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>PROMO1</t>
         </is>
       </c>
       <c r="E184" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F184" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G184" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H184" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I184" s="4" t="n">
-        <v>116.25</v>
+        <v>107.4</v>
       </c>
       <c r="J184" s="4" t="n">
-        <v>63.23</v>
+        <v>55.19</v>
       </c>
       <c r="K184" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L184" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M184" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N184" s="5" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O184" s="4" t="n">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="P184" s="4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q184" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R184" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S184" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T184" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T184" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U184" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V184" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W184" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>8804250003</t>
+          <t>8102040003</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM POLYANTHUM ESPALDERA</t>
+          <t>PHYLLOSTACHYS NIGRA</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>PROMO1</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F185" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G185" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H185" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I185" s="4" t="n">
-        <v>107.4</v>
+        <v>116.25</v>
       </c>
       <c r="J185" s="4" t="n">
-        <v>55.19</v>
+        <v>63.23</v>
       </c>
       <c r="K185" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L185" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M185" s="5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="N185" s="5" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O185" s="4" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="P185" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q185" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R185" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S185" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T185" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T185" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U185" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V185" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W185" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17842,17 +17842,17 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>C19A65</t>
+          <t>30LD14</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -17874,31 +17874,31 @@
         <v>30</v>
       </c>
       <c r="H191" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" s="4" t="n">
-        <v>105.9</v>
+        <v>104.95</v>
       </c>
       <c r="J191" s="4" t="n">
-        <v>54.73</v>
+        <v>53.87</v>
       </c>
       <c r="K191" s="4" t="n">
-        <v>14.29</v>
+        <v>50</v>
       </c>
       <c r="L191" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M191" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N191" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O191" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O191" s="4" t="n">
-        <v>12</v>
-      </c>
       <c r="P191" s="4" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="Q191" s="4" t="n">
         <v>92</v>
@@ -17933,17 +17933,17 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>30LD14</t>
+          <t>C19A65</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -17965,31 +17965,31 @@
         <v>30</v>
       </c>
       <c r="H192" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" s="4" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="J192" s="4" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="K192" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="L192" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N192" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I192" s="4" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="J192" s="4" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="K192" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L192" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N192" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O192" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P192" s="4" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="Q192" s="4" t="n">
         <v>92</v>
@@ -21645,17 +21645,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8401020027</t>
+          <t>8802040003</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>KAKI ROJO BRILLANTE</t>
+          <t>CORDYLINE AUSTRALIS RED STAR</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -21665,71 +21665,71 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H39" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O39" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I39" s="4" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="K39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" s="4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -21827,12 +21827,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8401020026</t>
+          <t>8401020027</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>KAKI FUYU</t>
+          <t>KAKI ROJO BRILLANTE</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -21868,7 +21868,7 @@
         <v>36.22</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
@@ -21880,10 +21880,10 @@
         <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -21896,12 +21896,12 @@
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -21911,24 +21911,24 @@
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8802040003</t>
+          <t>8401020026</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS RED STAR</t>
+          <t>KAKI FUYU</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -21938,71 +21938,71 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>79.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>41.31</v>
+        <v>36.22</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N42" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -23010,17 +23010,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020037</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>MEMBRILLO</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -23101,12 +23101,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -23157,7 +23157,7 @@
         <v>-2</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -23192,12 +23192,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020041</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>NOGAL COMUN</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -23233,7 +23233,7 @@
         <v>34.27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -23276,19 +23276,19 @@
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8401020041</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>NOGAL COMUN</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0</v>
@@ -23374,17 +23374,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020037</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>MEMBRILLO</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -23415,7 +23415,7 @@
         <v>34.27</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -23443,12 +23443,12 @@
       </c>
       <c r="T58" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -25558,12 +25558,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8701140001</t>
+          <t>8701140003</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA MOSCATELL</t>
+          <t>VITIS VINIFERA AUTUM ROYA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -25614,7 +25614,7 @@
         <v>-3</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -25649,12 +25649,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8701140003</t>
+          <t>8701140001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA AUTUM ROYA</t>
+          <t>VITIS VINIFERA MOSCATELL</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -25705,7 +25705,7 @@
         <v>-3</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -26559,17 +26559,17 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -26579,49 +26579,49 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>53.85</v>
+        <v>53.95</v>
       </c>
       <c r="J93" s="4" t="n">
-        <v>26.18</v>
+        <v>26.28</v>
       </c>
       <c r="K93" s="4" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L93" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M93" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N93" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N93" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O93" s="4" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P93" s="4" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S93" s="5" t="n">
         <v>0</v>
@@ -26633,29 +26633,29 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>8104090016</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS FORTUNEI EMERALD</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -26685,16 +26685,16 @@
         <v>3</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>59.85</v>
+        <v>53.85</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>31.64</v>
+        <v>26.18</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0.5</v>
@@ -26703,55 +26703,55 @@
         <v>1.5</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T94" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T94" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8104090016</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>EUONYMUS FORTUNEI EMERALD</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -26761,71 +26761,71 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H95" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>53.95</v>
+        <v>59.85</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>26.28</v>
+        <v>31.64</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L95" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N95" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T95" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T95" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27378,12 +27378,12 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>8103310003</t>
+          <t>8501010005</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>PRUNUS CERASIF NIGRA COPA</t>
+          <t>ACER PALMATUM CRIMSOM SENTRY COPA</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -27398,12 +27398,12 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -27434,7 +27434,7 @@
         <v>-1</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="Q102" s="4" t="n">
         <v>0</v>
@@ -27469,12 +27469,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>8501010005</t>
+          <t>8103310003</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>ACER PALMATUM CRIMSOM SENTRY COPA</t>
+          <t>PRUNUS CERASIF NIGRA COPA</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -27489,12 +27489,12 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -27525,7 +27525,7 @@
         <v>-1</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="Q103" s="4" t="n">
         <v>0</v>
@@ -28015,17 +28015,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8101290001</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>LAGERSTROEMIA INDICA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>C27A110</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -28035,12 +28035,12 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -28050,13 +28050,13 @@
         <v>1</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>51.95</v>
+        <v>49.95</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>26.78</v>
+        <v>24.96</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
@@ -28068,55 +28068,55 @@
         <v>0.5</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T109" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T109" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>8101290001</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>LAGERSTROEMIA INDICA</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>C27A110</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -28126,12 +28126,12 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -28141,13 +28141,13 @@
         <v>1</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>49.95</v>
+        <v>51.95</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>24.96</v>
+        <v>26.78</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
@@ -28159,38 +28159,38 @@
         <v>0.5</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T110" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T110" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28652,17 +28652,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>8303010019</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>ROSAL SEVILLANO ARBUSTIVO</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>C17A60</t>
+          <t>20LA100</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -28672,71 +28672,71 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>50.85</v>
+        <v>49.95</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>26.55</v>
+        <v>25.73</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>60</v>
+        <v>33.33</v>
       </c>
       <c r="L116" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M116" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N116" s="5" t="n">
         <v>0.5</v>
-      </c>
-      <c r="N116" s="5" t="n">
-        <v>1.5</v>
       </c>
       <c r="O116" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T116" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T116" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28834,17 +28834,17 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8303010019</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>ROSAL SEVILLANO ARBUSTIVO</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>20LA100</t>
+          <t>C17A60</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -28854,71 +28854,71 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G118" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H118" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>49.95</v>
+        <v>50.85</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>25.73</v>
+        <v>26.55</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>33.33</v>
+        <v>60</v>
       </c>
       <c r="L118" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M118" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N118" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O118" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="Q118" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R118" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T118" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T118" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U118" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V118" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W118" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -29562,17 +29562,17 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>8804220001</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>MUSA MAURELLI</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C30A25</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -29594,76 +29594,76 @@
         <v>30</v>
       </c>
       <c r="H126" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="4" t="n">
-        <v>45.9</v>
+        <v>45.65</v>
       </c>
       <c r="J126" s="4" t="n">
-        <v>23.73</v>
+        <v>23.5</v>
       </c>
       <c r="K126" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L126" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M126" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N126" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O126" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O126" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P126" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q126" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S126" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T126" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T126" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U126" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V126" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W126" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8804220001</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>MUSA MAURELLI</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>C30A25</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -29685,59 +29685,59 @@
         <v>30</v>
       </c>
       <c r="H127" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="4" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J127" s="4" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="K127" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N127" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I127" s="4" t="n">
-        <v>45.65</v>
-      </c>
-      <c r="J127" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K127" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L127" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N127" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O127" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P127" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q127" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S127" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T127" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T127" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U127" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V127" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W127" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -31382,17 +31382,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8802040002</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>CORDYLINE AUSTRALIS PEKO</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>7LA100</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -31402,43 +31402,43 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H146" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" s="4" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="J146" s="4" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="K146" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N146" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I146" s="4" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="J146" s="4" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="K146" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N146" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O146" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="Q146" s="4" t="n">
         <v>0</v>
@@ -31456,7 +31456,7 @@
       </c>
       <c r="U146" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V146" s="4" t="inlineStr">
@@ -31473,17 +31473,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>8802040002</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS PEKO</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>7LA100</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -31493,25 +31493,25 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H147" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" s="4" t="n">
-        <v>29.93</v>
+        <v>38.95</v>
       </c>
       <c r="J147" s="4" t="n">
-        <v>11.07</v>
+        <v>19.27</v>
       </c>
       <c r="K147" s="4" t="n">
         <v>0</v>
@@ -31520,16 +31520,16 @@
         <v>0</v>
       </c>
       <c r="M147" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N147" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O147" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -31547,7 +31547,7 @@
       </c>
       <c r="U147" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V147" s="4" t="inlineStr">
@@ -32728,17 +32728,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020064</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CEREZO LAPINS</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -32784,7 +32784,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -32819,17 +32819,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8401020064</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>CEREZO LAPINS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -33001,12 +33001,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8401020028</t>
+          <t>8401020006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MANZANO FUJI</t>
+          <t>ALMENDRO GUARA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -33045,7 +33045,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0.2</v>
@@ -33057,7 +33057,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>38</v>
@@ -33183,12 +33183,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8804240008</t>
+          <t>8401020028</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>OLIVO MANZANILLA</t>
+          <t>MANZANO FUJI</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -33203,12 +33203,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -33218,16 +33218,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>36.95</v>
+        <v>34.95</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>18.82</v>
+        <v>17</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0.2</v>
@@ -33236,50 +33236,50 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T18" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8401020006</t>
+          <t>8804240008</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO GUARA</t>
+          <t>OLIVO MANZANILLA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -33294,12 +33294,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -33309,13 +33309,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>34.95</v>
+        <v>36.95</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>17</v>
+        <v>18.82</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -33327,38 +33327,38 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -33547,17 +33547,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8401020005</t>
+          <t>8401020058</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA</t>
+          <t>MANZANO DELICIOUS ROJO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10LA175</t>
+          <t>10LA140</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -33588,10 +33588,10 @@
         <v>17.13</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0.2</v>
@@ -33600,10 +33600,10 @@
         <v>0.5</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>38</v>
@@ -33638,17 +33638,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8401020058</t>
+          <t>8401020005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MANZANO DELICIOUS ROJO</t>
+          <t>ALMENDRO MARCONA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10LA140</t>
+          <t>10LA175</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -33679,10 +33679,10 @@
         <v>17.13</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0.2</v>
@@ -33691,10 +33691,10 @@
         <v>0.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>38</v>
@@ -33729,17 +33729,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8501040004</t>
+          <t>8104230003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SASANQUA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>10LA70</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -33749,25 +33749,25 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>33.9</v>
+        <v>36.95</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>16.2</v>
+        <v>18.97</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>0</v>
@@ -33776,16 +33776,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -33803,7 +33803,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -33820,17 +33820,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8104230003</t>
+          <t>8501040004</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>CAMELIA SASANQUA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>10LA70</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -33840,43 +33840,43 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N25" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="4" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O25" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -34275,12 +34275,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8401020074</t>
+          <t>8401020073</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO ENANO</t>
+          <t>ALMENDRO ENANO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -34331,7 +34331,7 @@
         <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -34366,12 +34366,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8401020073</t>
+          <t>8401020074</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO ENANO</t>
+          <t>MELOCOTONERO ENANO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -34422,7 +34422,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -37816,17 +37816,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8401020022</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>GRANADO MOLLAR</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -37836,12 +37836,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -37851,13 +37851,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>24.95</v>
+        <v>22.95</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>13.74</v>
+        <v>11.92</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -37869,16 +37869,16 @@
         <v>0.5</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S69" s="5" t="n">
         <v>0</v>
@@ -37890,34 +37890,34 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1196 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8401020022</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>GRANADO MOLLAR</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -37927,12 +37927,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -37942,13 +37942,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>22.95</v>
+        <v>24.95</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>11.92</v>
+        <v>13.74</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
@@ -37960,16 +37960,16 @@
         <v>0.5</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S70" s="5" t="n">
         <v>0</v>
@@ -37981,17 +37981,17 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1196 días.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -38908,12 +38908,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8801010003</t>
+          <t>8801020003</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
+          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -38964,7 +38964,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -38999,12 +38999,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8801020003</t>
+          <t>8801010003</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
+          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -39055,7 +39055,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -39636,17 +39636,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8104230059</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>EUCALYPTUS BABY BLUE</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>13LA40</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -39668,31 +39668,31 @@
         <v>30</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>17.85</v>
+        <v>17.98</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="K89" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M89" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N89" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N89" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O89" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0</v>
@@ -39705,12 +39705,12 @@
       </c>
       <c r="T89" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -39720,24 +39720,24 @@
       </c>
       <c r="W89" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8104230059</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>EUCALYPTUS BABY BLUE</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>13LA40</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -39759,31 +39759,31 @@
         <v>30</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>17.98</v>
+        <v>17.85</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>9.24</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N90" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0</v>
@@ -39796,12 +39796,12 @@
       </c>
       <c r="T90" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -39811,7 +39811,7 @@
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -41365,17 +41365,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>8104140007</t>
+          <t>8104140003</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
+          <t>ILEX AQUIFOLIUM ALASKA</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>PROMO50.2</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -41421,7 +41421,7 @@
         <v>-1</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q108" s="4" t="n">
         <v>0</v>
@@ -41456,17 +41456,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8104140003</t>
+          <t>8104140007</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM ALASKA</t>
+          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>PROMO50.2</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -41512,7 +41512,7 @@
         <v>-1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>0</v>
@@ -41729,12 +41729,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>8402020016</t>
+          <t>8402020003</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
+          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -41785,7 +41785,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0</v>
@@ -41820,12 +41820,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>8402020003</t>
+          <t>8402020016</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
+          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -41876,7 +41876,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>0</v>
@@ -44531,17 +44531,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44551,12 +44551,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44575,7 +44575,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44584,16 +44584,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>306.67</v>
+        <v>293.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>30</v>
@@ -44605,12 +44605,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44622,17 +44622,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44642,12 +44642,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44666,7 +44666,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44675,16 +44675,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>306.67</v>
+        <v>223.33</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -44696,12 +44696,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44713,17 +44713,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44733,12 +44733,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44757,7 +44757,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44766,19 +44766,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>83.33</v>
+        <v>53.33</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -44787,12 +44787,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44804,17 +44804,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44848,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44857,7 +44857,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -44878,7 +44878,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -44895,17 +44895,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44915,12 +44915,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44969,7 +44969,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -44986,17 +44986,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45045,13 +45045,13 @@
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -45060,12 +45060,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45077,17 +45077,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45121,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45130,16 +45130,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S8" s="5" t="n">
         <v>30</v>
@@ -45151,12 +45151,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -45168,17 +45168,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -45242,7 +45242,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -45259,17 +45259,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45333,7 +45333,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -45350,17 +45350,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>230LD300</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45394,7 +45394,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45403,7 +45403,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -45424,7 +45424,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -45441,17 +45441,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45461,12 +45461,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45485,7 +45485,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45494,19 +45494,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -45515,12 +45515,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45532,17 +45532,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8104010007</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>ABELIA X GRANDIFLORA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>5LA60</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45552,12 +45552,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45576,7 +45576,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45585,16 +45585,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>126.67</v>
+        <v>130</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>20</v>
@@ -45611,7 +45611,7 @@
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45623,17 +45623,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45643,12 +45643,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45667,7 +45667,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45676,19 +45676,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -45697,12 +45697,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45714,17 +45714,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45734,12 +45734,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45767,19 +45767,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -45788,12 +45788,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45805,17 +45805,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8804250006</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM SAMBAC</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>C21A150</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45849,7 +45849,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45858,7 +45858,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -45879,7 +45879,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -45896,17 +45896,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45916,12 +45916,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45940,7 +45940,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45949,19 +45949,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T17" s="7" t="inlineStr">
         <is>
@@ -45970,12 +45970,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45987,17 +45987,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46007,12 +46007,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46040,16 +46040,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>10</v>
+        <v>56.67</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>0</v>
@@ -46066,7 +46066,7 @@
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46078,17 +46078,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46137,10 +46137,10 @@
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -46152,12 +46152,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46169,17 +46169,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>230LD300</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46189,12 +46189,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46228,13 +46228,13 @@
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -46243,12 +46243,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46260,17 +46260,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46280,12 +46280,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46304,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46313,7 +46313,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -46334,7 +46334,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -46351,17 +46351,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46371,12 +46371,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46425,7 +46425,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -46442,17 +46442,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46486,7 +46486,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46495,19 +46495,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -46516,12 +46516,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46624,17 +46624,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46644,12 +46644,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46668,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46677,7 +46677,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -46698,7 +46698,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -46715,17 +46715,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -46735,12 +46735,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -46759,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -46768,19 +46768,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -46789,12 +46789,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -46806,17 +46806,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -46826,12 +46826,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -46880,7 +46880,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -46897,17 +46897,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -46917,12 +46917,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -46950,16 +46950,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>293.33</v>
+        <v>306.67</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -46971,12 +46971,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -46988,17 +46988,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47041,19 +47041,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>13.33</v>
+        <v>210</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -47062,12 +47062,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47079,17 +47079,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47123,7 +47123,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47132,19 +47132,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -47153,12 +47153,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47170,17 +47170,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47190,12 +47190,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -47223,19 +47223,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -47244,12 +47244,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -47261,17 +47261,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -47281,12 +47281,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -47305,7 +47305,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -47314,19 +47314,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -47335,12 +47335,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -47352,17 +47352,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -47396,7 +47396,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -47405,19 +47405,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>126.67</v>
+        <v>83.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -47426,12 +47426,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -47443,17 +47443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -47463,12 +47463,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -47496,19 +47496,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>240</v>
+        <v>53.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -47517,12 +47517,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -47534,17 +47534,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -47578,7 +47578,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -47587,7 +47587,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -47608,7 +47608,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -47625,17 +47625,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8804250006</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>JASMINUM SAMBAC</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>C21A150</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -47669,7 +47669,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -47678,19 +47678,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -47699,12 +47699,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -47736,12 +47736,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -47769,16 +47769,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>153.33</v>
+        <v>306.67</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>30</v>
@@ -47790,12 +47790,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -47807,17 +47807,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -47851,7 +47851,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -47860,7 +47860,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -47881,7 +47881,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -47898,17 +47898,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -47918,12 +47918,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -47951,19 +47951,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -47972,12 +47972,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -47989,17 +47989,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8104010007</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ABELIA X GRANDIFLORA</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>5LA60</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48009,12 +48009,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48042,19 +48042,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -48063,12 +48063,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48080,17 +48080,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48100,12 +48100,12 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -48124,7 +48124,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48133,7 +48133,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
@@ -48154,7 +48154,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -48171,17 +48171,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48191,12 +48191,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -48245,7 +48245,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -48262,17 +48262,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -48282,12 +48282,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -48321,13 +48321,13 @@
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T43" s="7" t="inlineStr">
         <is>
@@ -48336,12 +48336,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -48353,17 +48353,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -48397,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -48406,7 +48406,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -48444,17 +48444,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -48464,12 +48464,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -48488,7 +48488,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -48497,20 +48497,20 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="R45" s="4" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="S45" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="S45" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
           <t>Crítico</t>
@@ -48518,12 +48518,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -48535,17 +48535,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -48579,7 +48579,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -48588,16 +48588,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -48614,7 +48614,7 @@
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -48626,17 +48626,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -48670,7 +48670,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -48679,7 +48679,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -48700,7 +48700,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -48717,17 +48717,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -48737,12 +48737,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -48770,19 +48770,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>210</v>
+        <v>126.67</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -48791,12 +48791,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -48808,17 +48808,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -48828,12 +48828,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -48852,7 +48852,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -48861,16 +48861,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>56.67</v>
+        <v>10</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>0</v>
@@ -48887,7 +48887,7 @@
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -48899,17 +48899,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -48952,16 +48952,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>0</v>
@@ -48978,7 +48978,7 @@
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -48990,17 +48990,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49010,12 +49010,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -49049,13 +49049,13 @@
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -49064,12 +49064,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49081,17 +49081,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49101,12 +49101,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49155,7 +49155,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -49172,17 +49172,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49192,12 +49192,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49216,7 +49216,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49225,7 +49225,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
@@ -49246,7 +49246,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -49263,17 +49263,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -49283,12 +49283,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -49316,7 +49316,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
@@ -49337,7 +49337,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -49354,17 +49354,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -49374,12 +49374,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -49398,7 +49398,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -49407,19 +49407,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>60</v>
+        <v>126.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -49428,12 +49428,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -49445,17 +49445,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -49465,12 +49465,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -49489,7 +49489,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -49498,16 +49498,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>306.67</v>
+        <v>153.33</v>
       </c>
       <c r="S56" s="5" t="n">
         <v>30</v>
@@ -49519,12 +49519,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -49536,17 +49536,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -49556,12 +49556,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -49595,10 +49595,10 @@
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>30</v>
@@ -49610,12 +49610,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -49627,17 +49627,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8106070018</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>25LA160</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -49647,12 +49647,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -49680,19 +49680,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -49701,12 +49701,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -49718,17 +49718,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -49738,12 +49738,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -49762,7 +49762,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -49771,16 +49771,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>306.67</v>
+        <v>200</v>
       </c>
       <c r="S59" s="5" t="n">
         <v>30</v>
@@ -49792,12 +49792,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -49809,17 +49809,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -49862,19 +49862,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -49883,12 +49883,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -49900,17 +49900,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -49920,12 +49920,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -49944,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -49953,19 +49953,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -49974,12 +49974,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -49991,17 +49991,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>C35A150</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50011,12 +50011,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -50035,7 +50035,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50044,19 +50044,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>53.33</v>
+        <v>130</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -50065,12 +50065,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50082,17 +50082,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50141,10 +50141,10 @@
         <v>92</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>30</v>
@@ -50156,12 +50156,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -50173,17 +50173,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50193,12 +50193,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50232,13 +50232,13 @@
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>126.67</v>
+        <v>56.67</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T64" s="7" t="inlineStr">
         <is>
@@ -50247,12 +50247,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -50264,17 +50264,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -50284,12 +50284,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -50308,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -50317,7 +50317,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -50338,7 +50338,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -50355,17 +50355,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -50375,12 +50375,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -50408,19 +50408,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>126.67</v>
+        <v>13.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -50429,12 +50429,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -50446,17 +50446,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -50466,12 +50466,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -50490,7 +50490,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -50499,16 +50499,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>223.33</v>
+        <v>306.67</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>30</v>
@@ -50520,12 +50520,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -50537,17 +50537,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -50557,12 +50557,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -50581,7 +50581,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -50590,19 +50590,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -50611,12 +50611,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -50628,17 +50628,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -50648,12 +50648,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -50672,7 +50672,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -50681,16 +50681,16 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>56.67</v>
+        <v>53.33</v>
       </c>
       <c r="S69" s="5" t="n">
         <v>0</v>
@@ -50707,7 +50707,7 @@
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -50719,17 +50719,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -50739,12 +50739,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -50763,7 +50763,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -50772,19 +50772,19 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T70" s="7" t="inlineStr">
         <is>
@@ -50793,12 +50793,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -50810,17 +50810,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -50854,7 +50854,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -50863,16 +50863,16 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S71" s="5" t="n">
         <v>30</v>
@@ -50884,12 +50884,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -50901,17 +50901,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -50921,12 +50921,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -50945,7 +50945,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -50954,7 +50954,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>92</v>
@@ -50975,7 +50975,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -50992,17 +50992,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -51012,12 +51012,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -51036,7 +51036,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -51045,19 +51045,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -51066,12 +51066,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -51083,17 +51083,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -51103,12 +51103,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -51136,19 +51136,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R74" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T74" s="7" t="inlineStr">
         <is>
@@ -51157,12 +51157,12 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W74" s="4" t="inlineStr">
@@ -51174,17 +51174,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -51194,12 +51194,12 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -51233,13 +51233,13 @@
         <v>92</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -51248,12 +51248,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -51265,17 +51265,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -51339,7 +51339,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -51356,17 +51356,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -51400,7 +51400,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -51409,19 +51409,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -51430,12 +51430,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -51447,17 +51447,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -51467,12 +51467,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -51521,7 +51521,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -51538,17 +51538,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -51597,13 +51597,13 @@
         <v>92</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T79" s="7" t="inlineStr">
         <is>
@@ -51612,12 +51612,12 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
@@ -51629,17 +51629,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -51649,12 +51649,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -51673,7 +51673,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80" s="5" t="n">
         <v>0</v>
@@ -51682,19 +51682,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>53.33</v>
+        <v>126.67</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -51703,12 +51703,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -51720,17 +51720,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -51794,7 +51794,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -51811,17 +51811,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -51831,12 +51831,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -51870,10 +51870,10 @@
         <v>92</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S82" s="5" t="n">
         <v>30</v>
@@ -51885,12 +51885,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -51902,17 +51902,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -51922,12 +51922,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -51946,7 +51946,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -51955,19 +51955,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>130</v>
+        <v>56.67</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T83" s="7" t="inlineStr">
         <is>
@@ -51976,12 +51976,12 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
@@ -51993,17 +51993,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -52013,12 +52013,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -52046,7 +52046,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>92</v>
@@ -52067,7 +52067,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -52084,17 +52084,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -52104,12 +52104,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -52143,13 +52143,13 @@
         <v>92</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -52158,12 +52158,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -52175,17 +52175,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -52195,12 +52195,12 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -52219,7 +52219,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -52228,19 +52228,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -52249,12 +52249,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -52266,17 +52266,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>C35A150</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -52310,7 +52310,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -52319,19 +52319,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -52340,12 +52340,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -52357,17 +52357,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -52377,12 +52377,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -52401,7 +52401,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M88" s="5" t="n">
         <v>0</v>
@@ -52410,7 +52410,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>92</v>
@@ -52431,7 +52431,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -52448,17 +52448,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8106070018</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>25LA160</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -52507,10 +52507,10 @@
         <v>92</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S89" s="5" t="n">
         <v>30</v>
@@ -52522,12 +52522,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
@@ -5739,12 +5739,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO SPRING CREST</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -5921,17 +5921,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>MELOCOTONERO SPRING CREST</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>90LD18</t>
+          <t>70LD18</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -6012,17 +6012,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>70LD18</t>
+          <t>90LD18</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -12655,12 +12655,12 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020036</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>MELOCOTONERO TARDIO</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -12696,7 +12696,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L134" s="4" t="n">
         <v>0</v>
@@ -12708,10 +12708,10 @@
         <v>2</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Q134" s="4" t="n">
         <v>0</v>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
@@ -12746,12 +12746,12 @@
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>8401020036</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO TARDIO</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -12787,7 +12787,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L135" s="4" t="n">
         <v>0</v>
@@ -12799,10 +12799,10 @@
         <v>2</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="Q135" s="4" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
@@ -14111,17 +14111,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8104230004</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>35LA200</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14131,43 +14131,43 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>121.95</v>
+        <v>206.46</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>59.56</v>
+        <v>136.39</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="5" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="N150" s="5" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q150" s="4" t="n">
         <v>0</v>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
@@ -14202,17 +14202,17 @@
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>8104230004</t>
+          <t>8401020034</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>MELOCOTON CARSON</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>35LA200</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -14222,43 +14222,43 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H151" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I151" s="4" t="n">
-        <v>206.46</v>
+        <v>121.95</v>
       </c>
       <c r="J151" s="4" t="n">
-        <v>136.39</v>
+        <v>59.56</v>
       </c>
       <c r="K151" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L151" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M151" s="5" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="N151" s="5" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P151" s="4" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Q151" s="4" t="n">
         <v>0</v>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V151" s="4" t="inlineStr">
@@ -14293,12 +14293,12 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>8401020034</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON CARSON</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -14349,7 +14349,7 @@
         <v>-1</v>
       </c>
       <c r="P152" s="4" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q152" s="4" t="n">
         <v>0</v>
@@ -16113,12 +16113,12 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020022</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>GRANADO MOLLAR</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -16154,7 +16154,7 @@
         <v>51.4</v>
       </c>
       <c r="K172" s="4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L172" s="4" t="n">
         <v>0</v>
@@ -16166,10 +16166,10 @@
         <v>1.5</v>
       </c>
       <c r="O172" s="4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P172" s="4" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q172" s="4" t="n">
         <v>0</v>
@@ -16182,12 +16182,12 @@
       </c>
       <c r="T172" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U172" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V172" s="4" t="inlineStr">
@@ -16197,19 +16197,19 @@
       </c>
       <c r="W172" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -16239,10 +16239,10 @@
         <v>3</v>
       </c>
       <c r="I173" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J173" s="4" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K173" s="4" t="n">
         <v>150</v>
@@ -16295,12 +16295,12 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>8401020022</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>GRANADO MOLLAR</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -16330,13 +16330,13 @@
         <v>3</v>
       </c>
       <c r="I174" s="4" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J174" s="4" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K174" s="4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L174" s="4" t="n">
         <v>0</v>
@@ -16348,10 +16348,10 @@
         <v>1.5</v>
       </c>
       <c r="O174" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P174" s="4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q174" s="4" t="n">
         <v>0</v>
@@ -16364,12 +16364,12 @@
       </c>
       <c r="T174" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U174" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V174" s="4" t="inlineStr">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="W174" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -19916,17 +19916,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8802100002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>WASHINGTONIA ROBUSTA GRUPO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15LA100</t>
+          <t>25LA120</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -19957,10 +19957,10 @@
         <v>45.88</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0.2</v>
@@ -19969,10 +19969,10 @@
         <v>0.5</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>92</v>
@@ -20007,17 +20007,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8802100002</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA GRUPO</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>25LA120</t>
+          <t>15LA100</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -20048,10 +20048,10 @@
         <v>45.88</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0.2</v>
@@ -20060,10 +20060,10 @@
         <v>0.5</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>92</v>
@@ -21736,17 +21736,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8404130008</t>
+          <t>8401020026</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>UVA CRIMSON SIN PEPITA</t>
+          <t>KAKI FUYU</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>3LA150</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -21768,13 +21768,13 @@
         <v>30</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>74.84999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>37.09</v>
+        <v>36.22</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
@@ -21783,16 +21783,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -21810,7 +21810,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -21827,17 +21827,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8401020027</t>
+          <t>8404130008</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>KAKI ROJO BRILLANTE</t>
+          <t>UVA CRIMSON SIN PEPITA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>3LA150</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -21859,31 +21859,31 @@
         <v>30</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>73.90000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>36.22</v>
+        <v>37.09</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -21896,12 +21896,12 @@
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -21911,19 +21911,19 @@
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8401020026</t>
+          <t>8401020027</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>KAKI FUYU</t>
+          <t>KAKI ROJO BRILLANTE</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -21959,7 +21959,7 @@
         <v>36.22</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
@@ -21971,10 +21971,10 @@
         <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>0</v>
@@ -21987,12 +21987,12 @@
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -22002,7 +22002,7 @@
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -23101,12 +23101,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -23142,7 +23142,7 @@
         <v>34.27</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -23154,10 +23154,10 @@
         <v>1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -23170,12 +23170,12 @@
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -23185,19 +23185,19 @@
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020041</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>NOGAL COMUN</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -23233,7 +23233,7 @@
         <v>34.27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -23276,19 +23276,19 @@
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -23324,7 +23324,7 @@
         <v>34.27</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         <v>1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0</v>
@@ -23352,12 +23352,12 @@
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -23367,19 +23367,19 @@
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020041</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>NOGAL COMUN</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -23415,7 +23415,7 @@
         <v>34.27</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -23443,12 +23443,12 @@
       </c>
       <c r="T58" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -24921,17 +24921,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8104230005</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>COPROSMA EVENING GLOW</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>C19A30</t>
+          <t>C40A30</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -24941,88 +24941,88 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>74.93000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>40.82</v>
+        <v>35.42</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="R75" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="S75" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T75" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+      <c r="T75" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8104230005</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>COPROSMA EVENING GLOW</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>C40A30</t>
+          <t>C19A30</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -25032,71 +25032,71 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>68.98999999999999</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>35.42</v>
+        <v>40.82</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N76" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T76" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T76" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -25558,12 +25558,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8701140003</t>
+          <t>8701140001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA AUTUM ROYA</t>
+          <t>VITIS VINIFERA MOSCATELL</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -25614,7 +25614,7 @@
         <v>-3</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -25649,12 +25649,12 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8701140001</t>
+          <t>8701140003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA MOSCATELL</t>
+          <t>VITIS VINIFERA AUTUM ROYA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -25705,7 +25705,7 @@
         <v>-3</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
@@ -26650,12 +26650,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8104090016</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>EUONYMUS FORTUNEI EMERALD</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -26685,16 +26685,16 @@
         <v>3</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>53.85</v>
+        <v>59.85</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>26.18</v>
+        <v>31.64</v>
       </c>
       <c r="K94" s="4" t="n">
-        <v>33.33</v>
+        <v>37.5</v>
       </c>
       <c r="L94" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M94" s="5" t="n">
         <v>0.5</v>
@@ -26703,50 +26703,50 @@
         <v>1.5</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P94" s="4" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T94" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T94" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>8104090016</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS FORTUNEI EMERALD</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -26776,16 +26776,16 @@
         <v>3</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>59.85</v>
+        <v>53.85</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>31.64</v>
+        <v>26.18</v>
       </c>
       <c r="K95" s="4" t="n">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="L95" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M95" s="5" t="n">
         <v>0.5</v>
@@ -26794,38 +26794,38 @@
         <v>1.5</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T95" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T95" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W95" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -28015,17 +28015,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8101290001</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>LAGERSTROEMIA INDICA</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>C27A110</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -28035,12 +28035,12 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -28050,13 +28050,13 @@
         <v>1</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>49.95</v>
+        <v>51.95</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>24.96</v>
+        <v>26.78</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
@@ -28068,55 +28068,55 @@
         <v>0.5</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T109" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T109" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8101290001</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>LAGERSTROEMIA INDICA</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>C27A110</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -28126,12 +28126,12 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -28141,13 +28141,13 @@
         <v>1</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>51.95</v>
+        <v>49.95</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>26.78</v>
+        <v>24.96</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
@@ -28159,38 +28159,38 @@
         <v>0.5</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T110" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T110" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -28743,17 +28743,17 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>8802100002</t>
+          <t>8303010019</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA GRUPO</t>
+          <t>ROSAL SEVILLANO ARBUSTIVO</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>18LA100</t>
+          <t>C17A60</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -28763,88 +28763,88 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>49.95</v>
+        <v>50.85</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>25.73</v>
+        <v>26.55</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="L117" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M117" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N117" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T117" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T117" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>8303010019</t>
+          <t>8802100002</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>ROSAL SEVILLANO ARBUSTIVO</t>
+          <t>WASHINGTONIA ROBUSTA GRUPO</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>C17A60</t>
+          <t>18LA100</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -28854,71 +28854,71 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G118" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H118" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="J118" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="K118" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L118" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I118" s="4" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="J118" s="4" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="K118" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L118" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M118" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N118" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N118" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O118" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="Q118" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R118" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S118" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T118" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T118" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U118" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V118" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W118" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30654,17 +30654,17 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>8801080002</t>
+          <t>8501180001</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>POMELO CITRUS PARADISI</t>
+          <t>PIERIS JAPONICA "MOUNTAIN FIRE"</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>6LA120</t>
+          <t>5LA45</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -30674,12 +30674,12 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
@@ -30689,10 +30689,10 @@
         <v>2</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>41.7</v>
+        <v>43.9</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>21.23</v>
+        <v>23.23</v>
       </c>
       <c r="K138" s="4" t="n">
         <v>0</v>
@@ -30710,7 +30710,7 @@
         <v>-2</v>
       </c>
       <c r="P138" s="4" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q138" s="4" t="n">
         <v>0</v>
@@ -30745,17 +30745,17 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>8501180001</t>
+          <t>8801080002</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>PIERIS JAPONICA "MOUNTAIN FIRE"</t>
+          <t>POMELO CITRUS PARADISI</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>5LA45</t>
+          <t>6LA120</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -30765,12 +30765,12 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F139" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G139" s="4" t="n">
@@ -30780,10 +30780,10 @@
         <v>2</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>43.9</v>
+        <v>41.7</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>23.23</v>
+        <v>21.23</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>0</v>
@@ -30801,7 +30801,7 @@
         <v>-2</v>
       </c>
       <c r="P139" s="4" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q139" s="4" t="n">
         <v>0</v>
@@ -30836,12 +30836,12 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8104090007</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>EUONYMUS JAPONICUS COMPACT</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -30892,7 +30892,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="Q140" s="4" t="n">
         <v>0</v>
@@ -30927,12 +30927,12 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>8104090007</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS COMPACT</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -30983,7 +30983,7 @@
         <v>-1</v>
       </c>
       <c r="P141" s="4" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="Q141" s="4" t="n">
         <v>0</v>
@@ -31382,17 +31382,17 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>8802040002</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS PEKO</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>7LA100</t>
         </is>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -31402,25 +31402,25 @@
       </c>
       <c r="E146" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G146" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H146" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" s="4" t="n">
-        <v>29.93</v>
+        <v>38.95</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>11.07</v>
+        <v>19.27</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>0</v>
@@ -31429,16 +31429,16 @@
         <v>0</v>
       </c>
       <c r="M146" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N146" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O146" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P146" s="4" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q146" s="4" t="n">
         <v>0</v>
@@ -31456,7 +31456,7 @@
       </c>
       <c r="U146" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V146" s="4" t="inlineStr">
@@ -31473,17 +31473,17 @@
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8802040002</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>CORDYLINE AUSTRALIS PEKO</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>7LA100</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
@@ -31493,43 +31493,43 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G147" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H147" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="4" t="n">
+        <v>29.93</v>
+      </c>
+      <c r="J147" s="4" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="K147" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N147" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I147" s="4" t="n">
-        <v>38.95</v>
-      </c>
-      <c r="J147" s="4" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="K147" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M147" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N147" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O147" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P147" s="4" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="Q147" s="4" t="n">
         <v>0</v>
@@ -31547,7 +31547,7 @@
       </c>
       <c r="U147" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V147" s="4" t="inlineStr">
@@ -32546,17 +32546,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8401020029</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GALA</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -32602,7 +32602,7 @@
         <v>-1</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>0</v>
@@ -32637,17 +32637,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8401020029</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>MANZANO GALA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10LA160</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -32693,7 +32693,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0</v>
@@ -32728,17 +32728,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8401020064</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>CEREZO LAPINS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -32784,7 +32784,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -32819,17 +32819,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8401020064</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CEREZO LAPINS</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA160</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -33001,12 +33001,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8401020006</t>
+          <t>8401020028</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO GUARA</t>
+          <t>MANZANO FUJI</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -33045,7 +33045,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0.2</v>
@@ -33057,7 +33057,7 @@
         <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>38</v>
@@ -33092,12 +33092,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8401020016</t>
+          <t>8804240008</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO JAPONES NEGRO</t>
+          <t>OLIVO MANZANILLA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -33112,12 +33112,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -33127,10 +33127,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>34.95</v>
+        <v>36.95</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>17</v>
+        <v>18.82</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>0</v>
@@ -33148,7 +33148,7 @@
         <v>-1</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0</v>
@@ -33183,12 +33183,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8401020028</t>
+          <t>8401020016</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MANZANO FUJI</t>
+          <t>CIRUELO JAPONES NEGRO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -33224,10 +33224,10 @@
         <v>17</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0.2</v>
@@ -33236,50 +33236,50 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T18" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8804240008</t>
+          <t>8401020006</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>OLIVO MANZANILLA</t>
+          <t>ALMENDRO GUARA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -33294,12 +33294,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -33309,13 +33309,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>36.95</v>
+        <v>34.95</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>18.82</v>
+        <v>17</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -33327,38 +33327,38 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T19" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -33456,17 +33456,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8401020005</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>ALMENDRO MARCONA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA175</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -33497,10 +33497,10 @@
         <v>17.13</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0.2</v>
@@ -33509,10 +33509,10 @@
         <v>0.5</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>38</v>
@@ -33638,17 +33638,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8401020005</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10LA175</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -33679,10 +33679,10 @@
         <v>17.13</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0.2</v>
@@ -33691,10 +33691,10 @@
         <v>0.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>38</v>
@@ -34275,12 +34275,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8401020073</t>
+          <t>8401020074</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO ENANO</t>
+          <t>MELOCOTONERO ENANO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -34331,7 +34331,7 @@
         <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -34366,12 +34366,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8401020074</t>
+          <t>8401020073</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO ENANO</t>
+          <t>ALMENDRO ENANO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -34422,7 +34422,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -36277,17 +36277,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8104230051</t>
+          <t>8501040005</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>HEUCHERA HYBRIDA</t>
+          <t>CAMELIA YULETIDE</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>4LA30</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -36297,12 +36297,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -36312,10 +36312,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>29.9</v>
+        <v>25.9</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>16.1</v>
+        <v>12.47</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>0</v>
@@ -36333,7 +36333,7 @@
         <v>-2</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
@@ -36368,17 +36368,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8501040005</t>
+          <t>8104230051</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA YULETIDE</t>
+          <t>HEUCHERA HYBRIDA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>4LA30</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -36388,12 +36388,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -36403,10 +36403,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>25.9</v>
+        <v>29.9</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>12.47</v>
+        <v>16.1</v>
       </c>
       <c r="K53" s="4" t="n">
         <v>0</v>
@@ -36424,7 +36424,7 @@
         <v>-2</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0</v>
@@ -37816,17 +37816,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8401020022</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>GRANADO MOLLAR</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -37836,12 +37836,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -37851,13 +37851,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>22.95</v>
+        <v>24.95</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>11.92</v>
+        <v>13.74</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="L69" s="4" t="n">
         <v>0</v>
@@ -37869,16 +37869,16 @@
         <v>0.5</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S69" s="5" t="n">
         <v>0</v>
@@ -37890,34 +37890,34 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1196 días.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8401020022</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>GRANADO MOLLAR</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -37927,12 +37927,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -37942,13 +37942,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>24.95</v>
+        <v>22.95</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>13.74</v>
+        <v>11.92</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
@@ -37960,16 +37960,16 @@
         <v>0.5</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S70" s="5" t="n">
         <v>0</v>
@@ -37981,17 +37981,17 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 1196 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -39636,17 +39636,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8104230059</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>EUCALYPTUS BABY BLUE</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>13LA40</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -39668,31 +39668,31 @@
         <v>30</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>17.98</v>
+        <v>17.85</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>9.24</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K89" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N89" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0</v>
@@ -39705,12 +39705,12 @@
       </c>
       <c r="T89" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -39720,24 +39720,24 @@
       </c>
       <c r="W89" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>8104230059</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>EUCALYPTUS BABY BLUE</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>13LA40</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -39759,31 +39759,31 @@
         <v>30</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>17.85</v>
+        <v>17.98</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.24</v>
       </c>
       <c r="K90" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L90" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N90" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N90" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O90" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0</v>
@@ -39796,12 +39796,12 @@
       </c>
       <c r="T90" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -39811,52 +39811,52 @@
       </c>
       <c r="W90" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>8104090001</t>
+          <t>8804250003</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS BRAVO</t>
+          <t>JASMINUM POLYANTHUM ESPALDERA</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>5LA75</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>PROMO2</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>17.95</v>
+        <v>17.93</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K91" s="4" t="n">
         <v>0</v>
@@ -39865,16 +39865,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N91" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q91" s="4" t="n">
         <v>0</v>
@@ -39892,7 +39892,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -39909,45 +39909,45 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>8804250003</t>
+          <t>8104090001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM POLYANTHUM ESPALDERA</t>
+          <t>EUONYMUS BRAVO</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>5LA75</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>PROMO2</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>17.93</v>
+        <v>17.95</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="K92" s="4" t="n">
         <v>0</v>
@@ -39956,16 +39956,16 @@
         <v>0</v>
       </c>
       <c r="M92" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N92" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N92" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O92" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P92" s="4" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="Q92" s="4" t="n">
         <v>0</v>
@@ -39983,7 +39983,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -41365,17 +41365,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>8104140003</t>
+          <t>8104140007</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM ALASKA</t>
+          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>PROMO50.2</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -41421,7 +41421,7 @@
         <v>-1</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q108" s="4" t="n">
         <v>0</v>
@@ -41456,17 +41456,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8104140007</t>
+          <t>8104140003</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
+          <t>ILEX AQUIFOLIUM ALASKA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>PROMO50.2</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -41512,7 +41512,7 @@
         <v>-1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>0</v>
@@ -41729,12 +41729,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>8402020003</t>
+          <t>8402020016</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
+          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -41785,7 +41785,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0</v>
@@ -41820,12 +41820,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>8402020016</t>
+          <t>8402020003</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
+          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -41876,7 +41876,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>0</v>
@@ -42275,12 +42275,12 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>8404110010</t>
+          <t>8404070002</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>VACCINIUM VITIS IDAEA (ARANDANO ROJO)</t>
+          <t>RIBES RUBRUM GROSELLA ROJA</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -42310,10 +42310,10 @@
         <v>1</v>
       </c>
       <c r="I118" s="4" t="n">
-        <v>9.58</v>
+        <v>11.5</v>
       </c>
       <c r="J118" s="4" t="n">
-        <v>4.21</v>
+        <v>5.95</v>
       </c>
       <c r="K118" s="4" t="n">
         <v>5</v>
@@ -42331,7 +42331,7 @@
         <v>19</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q118" s="4" t="n">
         <v>25</v>
@@ -42366,12 +42366,12 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>8404070002</t>
+          <t>8404110010</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA ROJA</t>
+          <t>VACCINIUM VITIS IDAEA (ARANDANO ROJO)</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -42401,10 +42401,10 @@
         <v>1</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>11.5</v>
+        <v>9.58</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>5.95</v>
+        <v>4.21</v>
       </c>
       <c r="K119" s="4" t="n">
         <v>5</v>
@@ -42422,7 +42422,7 @@
         <v>19</v>
       </c>
       <c r="P119" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q119" s="4" t="n">
         <v>25</v>
@@ -43185,17 +43185,17 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>8104230057</t>
+          <t>8104090004</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>CONRADINA CANENCENS</t>
+          <t>EUONYMUS JAPONICUS PUNCHELUS VERDE</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -43217,76 +43217,76 @@
         <v>30</v>
       </c>
       <c r="H128" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J128" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="K128" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="L128" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N128" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I128" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J128" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N128" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O128" s="4" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="P128" s="4" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q128" s="4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R128" s="4" t="n">
-        <v>0</v>
+        <v>123.33</v>
       </c>
       <c r="S128" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T128" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T128" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U128" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V128" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W128" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>8104090004</t>
+          <t>8104230057</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS PUNCHELUS VERDE</t>
+          <t>CONRADINA CANENCENS</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -43308,59 +43308,59 @@
         <v>30</v>
       </c>
       <c r="H129" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" s="4" t="n">
-        <v>9.5</v>
+        <v>9.99</v>
       </c>
       <c r="J129" s="4" t="n">
-        <v>4.88</v>
+        <v>5.32</v>
       </c>
       <c r="K129" s="4" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="L129" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M129" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N129" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O129" s="4" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="P129" s="4" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="Q129" s="4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R129" s="4" t="n">
-        <v>123.33</v>
+        <v>0</v>
       </c>
       <c r="S129" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T129" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T129" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U129" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V129" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W129" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -44531,17 +44531,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44551,12 +44551,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44575,7 +44575,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44584,19 +44584,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>293.33</v>
+        <v>56.67</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -44605,12 +44605,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44622,17 +44622,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44642,12 +44642,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44681,10 +44681,10 @@
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>223.33</v>
+        <v>153.33</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -44701,7 +44701,7 @@
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44713,17 +44713,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44733,12 +44733,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44772,13 +44772,13 @@
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -44787,12 +44787,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44804,17 +44804,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44824,12 +44824,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44848,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44857,19 +44857,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -44878,12 +44878,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44895,17 +44895,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44915,12 +44915,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44939,7 +44939,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44948,7 +44948,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -44969,7 +44969,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -44986,17 +44986,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45006,12 +45006,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -45045,13 +45045,13 @@
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -45060,12 +45060,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45077,17 +45077,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45121,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45130,7 +45130,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -45151,7 +45151,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -45168,17 +45168,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -45212,7 +45212,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45221,19 +45221,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -45242,12 +45242,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45259,17 +45259,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45318,10 +45318,10 @@
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>30</v>
@@ -45333,12 +45333,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45350,17 +45350,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>230LD300</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45370,12 +45370,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45394,7 +45394,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45403,7 +45403,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -45424,7 +45424,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -45441,17 +45441,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45532,17 +45532,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8104010007</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ABELIA X GRANDIFLORA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>5LA60</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45576,7 +45576,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -45585,19 +45585,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>130</v>
+        <v>56.67</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -45606,12 +45606,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45623,17 +45623,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45643,12 +45643,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45667,7 +45667,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -45676,16 +45676,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>20</v>
@@ -45702,7 +45702,7 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45714,17 +45714,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45734,12 +45734,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45767,7 +45767,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
@@ -45788,7 +45788,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -45805,17 +45805,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45825,12 +45825,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45879,7 +45879,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -45896,17 +45896,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45955,10 +45955,10 @@
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -45970,12 +45970,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45987,17 +45987,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46007,12 +46007,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46046,13 +46046,13 @@
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -46061,12 +46061,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46078,17 +46078,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46137,10 +46137,10 @@
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -46152,12 +46152,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46169,17 +46169,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46189,12 +46189,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46213,7 +46213,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46222,19 +46222,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -46243,12 +46243,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46260,17 +46260,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46280,12 +46280,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46304,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46313,19 +46313,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -46334,12 +46334,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46351,17 +46351,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46371,12 +46371,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46404,19 +46404,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -46425,12 +46425,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46442,17 +46442,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46516,7 +46516,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -46533,17 +46533,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8401020033</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON  VID PRECOZ</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46553,12 +46553,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46577,7 +46577,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46586,19 +46586,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>126.67</v>
+        <v>10</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -46607,12 +46607,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46624,17 +46624,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46644,12 +46644,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46668,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46677,7 +46677,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -46698,7 +46698,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -46715,17 +46715,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -46735,12 +46735,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -46759,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -46768,7 +46768,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -46789,7 +46789,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -46806,17 +46806,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -46850,7 +46850,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -46859,19 +46859,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -46880,12 +46880,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -46897,17 +46897,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -46917,12 +46917,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -46950,16 +46950,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -46971,12 +46971,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -46988,17 +46988,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47041,19 +47041,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -47062,12 +47062,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47079,17 +47079,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47099,12 +47099,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47123,7 +47123,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47132,19 +47132,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>56.67</v>
+        <v>223.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -47153,12 +47153,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47170,17 +47170,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47190,12 +47190,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -47223,19 +47223,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -47244,12 +47244,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -47261,17 +47261,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -47281,12 +47281,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -47305,7 +47305,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -47314,19 +47314,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -47335,12 +47335,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -47352,17 +47352,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -47372,12 +47372,12 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -47396,7 +47396,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -47405,19 +47405,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>83.33</v>
+        <v>130</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -47426,12 +47426,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -47443,17 +47443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -47463,12 +47463,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -47496,19 +47496,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -47517,12 +47517,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -47534,17 +47534,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -47554,12 +47554,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -47578,7 +47578,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -47587,16 +47587,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>306.67</v>
+        <v>293.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -47608,12 +47608,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -47736,12 +47736,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -47790,7 +47790,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -47807,17 +47807,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -47827,12 +47827,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -47851,7 +47851,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -47860,7 +47860,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
@@ -47881,7 +47881,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -47898,17 +47898,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -47918,12 +47918,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -47951,7 +47951,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
@@ -47972,7 +47972,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -47989,17 +47989,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48009,12 +48009,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48042,19 +48042,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -48063,12 +48063,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48080,17 +48080,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48154,7 +48154,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -48171,17 +48171,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48191,12 +48191,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -48215,7 +48215,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -48224,7 +48224,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
@@ -48245,7 +48245,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -48262,17 +48262,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -48282,12 +48282,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -48321,13 +48321,13 @@
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T43" s="7" t="inlineStr">
         <is>
@@ -48336,12 +48336,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -48353,17 +48353,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -48373,12 +48373,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -48397,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -48406,19 +48406,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>53.33</v>
+        <v>210</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -48427,12 +48427,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -48444,17 +48444,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8104010007</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>ABELIA X GRANDIFLORA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>5LA60</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -48464,12 +48464,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -48488,7 +48488,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -48497,19 +48497,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>83.33</v>
+        <v>130</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -48518,12 +48518,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -48535,17 +48535,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -48579,7 +48579,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -48588,19 +48588,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>240</v>
+        <v>56.67</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -48609,12 +48609,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -48626,17 +48626,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -48670,7 +48670,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -48679,7 +48679,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -48700,7 +48700,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -48717,17 +48717,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -48737,12 +48737,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -48770,19 +48770,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -48791,12 +48791,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -48808,17 +48808,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -48828,12 +48828,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -48852,7 +48852,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -48861,19 +48861,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>10</v>
+        <v>126.67</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -48882,12 +48882,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -48899,17 +48899,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -48952,19 +48952,19 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -48973,12 +48973,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -48990,17 +48990,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49010,12 +49010,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -49034,7 +49034,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49043,19 +49043,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>126.67</v>
+        <v>10</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -49064,12 +49064,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49081,17 +49081,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49101,12 +49101,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49134,7 +49134,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -49172,17 +49172,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49192,12 +49192,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49216,7 +49216,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49225,19 +49225,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>306.67</v>
+        <v>13.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -49246,12 +49246,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -49263,17 +49263,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -49283,12 +49283,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -49316,7 +49316,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
@@ -49337,7 +49337,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -49354,17 +49354,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -49374,12 +49374,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -49398,7 +49398,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -49407,19 +49407,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -49428,12 +49428,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -49445,17 +49445,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -49465,12 +49465,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -49489,7 +49489,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -49498,16 +49498,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>153.33</v>
+        <v>306.67</v>
       </c>
       <c r="S56" s="5" t="n">
         <v>30</v>
@@ -49519,12 +49519,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -49536,17 +49536,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -49556,12 +49556,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -49610,7 +49610,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -49627,17 +49627,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>230LD300</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -49647,12 +49647,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -49680,19 +49680,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -49701,12 +49701,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -49718,17 +49718,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -49738,12 +49738,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -49762,7 +49762,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -49771,19 +49771,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -49792,12 +49792,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -49809,17 +49809,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -49862,7 +49862,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
@@ -49883,7 +49883,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -49900,17 +49900,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -49920,12 +49920,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -49944,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -49953,19 +49953,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -49974,12 +49974,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -50082,17 +50082,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50141,10 +50141,10 @@
         <v>92</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S63" s="5" t="n">
         <v>30</v>
@@ -50156,12 +50156,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -50173,17 +50173,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50193,12 +50193,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50217,7 +50217,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50226,19 +50226,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>56.67</v>
+        <v>83.33</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T64" s="7" t="inlineStr">
         <is>
@@ -50247,12 +50247,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -50264,17 +50264,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -50284,12 +50284,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -50308,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -50317,7 +50317,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -50338,7 +50338,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -50355,17 +50355,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -50375,12 +50375,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -50408,19 +50408,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>13.33</v>
+        <v>240</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -50429,12 +50429,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -50446,17 +50446,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -50466,12 +50466,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -50520,7 +50520,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -50537,17 +50537,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -50557,12 +50557,12 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -50581,7 +50581,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M68" s="5" t="n">
         <v>0</v>
@@ -50590,16 +50590,16 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S68" s="5" t="n">
         <v>30</v>
@@ -50611,12 +50611,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -50628,17 +50628,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -50648,12 +50648,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -50672,7 +50672,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0</v>
@@ -50681,19 +50681,19 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>53.33</v>
+        <v>126.67</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -50702,12 +50702,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -50719,17 +50719,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8106070018</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>25LA160</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -50739,12 +50739,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -50778,13 +50778,13 @@
         <v>92</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T70" s="7" t="inlineStr">
         <is>
@@ -50793,12 +50793,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -50810,17 +50810,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -50869,10 +50869,10 @@
         <v>92</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S71" s="5" t="n">
         <v>30</v>
@@ -50884,12 +50884,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -50901,17 +50901,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -50921,12 +50921,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -50945,7 +50945,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -50954,7 +50954,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>92</v>
@@ -50975,7 +50975,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -50992,17 +50992,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -51036,7 +51036,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -51045,19 +51045,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -51066,12 +51066,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -51083,17 +51083,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -51136,7 +51136,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>92</v>
@@ -51157,7 +51157,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -51174,17 +51174,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -51194,12 +51194,12 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -51218,7 +51218,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -51227,19 +51227,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>210</v>
+        <v>53.33</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -51248,12 +51248,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -51265,17 +51265,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -51285,12 +51285,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -51324,13 +51324,13 @@
         <v>92</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -51339,12 +51339,12 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -51356,17 +51356,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -51376,12 +51376,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -51415,13 +51415,13 @@
         <v>92</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>130</v>
+        <v>53.33</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -51430,12 +51430,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -51447,17 +51447,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -51467,12 +51467,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -51491,7 +51491,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -51500,19 +51500,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -51521,12 +51521,12 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -51538,17 +51538,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -51558,12 +51558,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -51582,7 +51582,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -51591,19 +51591,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>130</v>
+        <v>53.33</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T79" s="7" t="inlineStr">
         <is>
@@ -51612,12 +51612,12 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
@@ -51629,12 +51629,12 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -51720,17 +51720,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -51740,12 +51740,12 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -51764,7 +51764,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M81" s="5" t="n">
         <v>0</v>
@@ -51773,19 +51773,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T81" s="7" t="inlineStr">
         <is>
@@ -51794,12 +51794,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -51811,17 +51811,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -51831,12 +51831,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -51864,16 +51864,16 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S82" s="5" t="n">
         <v>30</v>
@@ -51885,12 +51885,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -51902,17 +51902,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -51922,12 +51922,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -51946,7 +51946,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -51955,19 +51955,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T83" s="7" t="inlineStr">
         <is>
@@ -51976,12 +51976,12 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
@@ -51993,17 +51993,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -52046,16 +52046,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>306.67</v>
+        <v>200</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>30</v>
@@ -52067,12 +52067,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -52084,17 +52084,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -52128,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -52137,19 +52137,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -52158,12 +52158,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -52175,17 +52175,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -52195,12 +52195,12 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -52219,7 +52219,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -52228,7 +52228,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>92</v>
@@ -52249,7 +52249,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -52266,17 +52266,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -52286,12 +52286,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -52310,7 +52310,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -52319,7 +52319,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>92</v>
@@ -52340,7 +52340,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -52357,17 +52357,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -52431,7 +52431,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -52448,17 +52448,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8106070018</t>
+          <t>8401020033</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
+          <t>MELOCOTON  VID PRECOZ</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>25LA160</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -52468,12 +52468,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -52507,13 +52507,13 @@
         <v>92</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -52522,12 +52522,12 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
@@ -2463,12 +2463,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8801070002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>NARANJO CITRUS SINENSIS</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2504,7 +2504,7 @@
         <v>253.44</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -2516,50 +2516,50 @@
         <v>2.9</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>0</v>
+        <v>293.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T22" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8801070002</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>NARANJO CITRUS SINENSIS</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -2595,7 +2595,7 @@
         <v>253.44</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -2607,38 +2607,38 @@
         <v>2.9</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>293.33</v>
+        <v>0</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T23" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -5739,17 +5739,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>70LD18</t>
+          <t>90LD18</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -5921,12 +5921,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020030</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO SPRING CREST</t>
+          <t>MANZANO GOLDEN</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -6012,17 +6012,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>90LD18</t>
+          <t>70LD18</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -6103,12 +6103,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8401020030</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN</t>
+          <t>MELOCOTONERO SPRING CREST</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -7832,17 +7832,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8401020019</t>
+          <t>8401020009</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO REINA CLAUDIA VERDE</t>
+          <t>CEREZO PICOTA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>10LA175</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -7873,7 +7873,7 @@
         <v>102.02</v>
       </c>
       <c r="K81" s="4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L81" s="4" t="n">
         <v>0</v>
@@ -7885,10 +7885,10 @@
         <v>2.9</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -7923,17 +7923,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8401020009</t>
+          <t>8401020019</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>CEREZO PICOTA</t>
+          <t>CIRUELO REINA CLAUDIA VERDE</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA175</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -7964,7 +7964,7 @@
         <v>102.02</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0</v>
@@ -7976,10 +7976,10 @@
         <v>2.9</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -12564,12 +12564,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>8401020010</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>CEREZO BURLAT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -12605,7 +12605,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K133" s="4" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L133" s="4" t="n">
         <v>0</v>
@@ -12617,50 +12617,50 @@
         <v>2</v>
       </c>
       <c r="O133" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Q133" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R133" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S133" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T133" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T133" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U133" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V133" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W133" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>8401020036</t>
+          <t>8401020010</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO TARDIO</t>
+          <t>CEREZO BURLAT</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -12696,7 +12696,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L134" s="4" t="n">
         <v>0</v>
@@ -12708,50 +12708,50 @@
         <v>2</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T134" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T134" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020036</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>MELOCOTONERO TARDIO</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -12787,7 +12787,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L135" s="4" t="n">
         <v>0</v>
@@ -12799,10 +12799,10 @@
         <v>2</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Q135" s="4" t="n">
         <v>0</v>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
@@ -14111,17 +14111,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>8104230004</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>35LA200</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14131,43 +14131,43 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>206.46</v>
+        <v>121.95</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>136.39</v>
+        <v>59.56</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="5" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="N150" s="5" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q150" s="4" t="n">
         <v>0</v>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
@@ -14293,17 +14293,17 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8104230004</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>35LA200</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -14313,43 +14313,43 @@
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G152" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H152" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I152" s="4" t="n">
-        <v>121.95</v>
+        <v>206.46</v>
       </c>
       <c r="J152" s="4" t="n">
-        <v>59.56</v>
+        <v>136.39</v>
       </c>
       <c r="K152" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L152" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M152" s="5" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="N152" s="5" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="O152" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P152" s="4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q152" s="4" t="n">
         <v>0</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="U152" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V152" s="4" t="inlineStr">
@@ -16022,12 +16022,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>8401020035</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO AGUA</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -16057,10 +16057,10 @@
         <v>3</v>
       </c>
       <c r="I171" s="4" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J171" s="4" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K171" s="4" t="n">
         <v>150</v>
@@ -16078,7 +16078,7 @@
         <v>-1</v>
       </c>
       <c r="P171" s="4" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q171" s="4" t="n">
         <v>0</v>
@@ -16204,12 +16204,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020035</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>MELOCOTONERO AGUA</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -16260,7 +16260,7 @@
         <v>-1</v>
       </c>
       <c r="P173" s="4" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q173" s="4" t="n">
         <v>0</v>
@@ -16295,12 +16295,12 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -16330,10 +16330,10 @@
         <v>3</v>
       </c>
       <c r="I174" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J174" s="4" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K174" s="4" t="n">
         <v>150</v>
@@ -16659,17 +16659,17 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>8804340001</t>
+          <t>8104230006</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>TEUCRIUM FRUTICANS</t>
+          <t>COPROSMA CHOCOLATE SOLDIER</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>5LA40</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
@@ -16679,12 +16679,12 @@
       </c>
       <c r="E178" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G178" s="4" t="n">
@@ -16700,10 +16700,10 @@
         <v>55.35</v>
       </c>
       <c r="K178" s="4" t="n">
-        <v>35.29</v>
+        <v>75</v>
       </c>
       <c r="L178" s="4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M178" s="5" t="n">
         <v>1</v>
@@ -16712,10 +16712,10 @@
         <v>2.9</v>
       </c>
       <c r="O178" s="4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P178" s="4" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Q178" s="4" t="n">
         <v>92</v>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="U178" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V178" s="4" t="inlineStr">
@@ -16743,24 +16743,24 @@
       </c>
       <c r="W178" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>8104230006</t>
+          <t>8804340001</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>COPROSMA CHOCOLATE SOLDIER</t>
+          <t>TEUCRIUM FRUTICANS</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>5LA40</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -16770,12 +16770,12 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F179" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G179" s="4" t="n">
@@ -16791,10 +16791,10 @@
         <v>55.35</v>
       </c>
       <c r="K179" s="4" t="n">
-        <v>75</v>
+        <v>35.29</v>
       </c>
       <c r="L179" s="4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M179" s="5" t="n">
         <v>1</v>
@@ -16803,10 +16803,10 @@
         <v>2.9</v>
       </c>
       <c r="O179" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P179" s="4" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="Q179" s="4" t="n">
         <v>92</v>
@@ -16824,7 +16824,7 @@
       </c>
       <c r="U179" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V179" s="4" t="inlineStr">
@@ -16834,7 +16834,7 @@
       </c>
       <c r="W179" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -19370,12 +19370,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8801080001</t>
+          <t>8801010001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MANO BUDA-CITRUS MEDICA</t>
+          <t>CALAMONDIN CITRUS MITIS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -19426,7 +19426,7 @@
         <v>-2</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -19461,12 +19461,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8801010001</t>
+          <t>8801080001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CALAMONDIN CITRUS MITIS</t>
+          <t>MANO BUDA-CITRUS MEDICA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -19517,7 +19517,7 @@
         <v>-2</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
@@ -20280,17 +20280,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8701140002</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA RED GLOBE</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>5LA150</t>
+          <t>3I5LA60</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -20300,12 +20300,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -20315,10 +20315,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>91.8</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>49.25</v>
+        <v>36.67</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>0</v>
@@ -20336,7 +20336,7 @@
         <v>-4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -20371,17 +20371,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8701140002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>VITIS VINIFERA RED GLOBE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>3I5LA60</t>
+          <t>5LA150</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -20391,12 +20391,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -20406,10 +20406,10 @@
         <v>4</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>77.95999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>36.67</v>
+        <v>49.25</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>0</v>
@@ -20427,7 +20427,7 @@
         <v>-4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -21645,17 +21645,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8802040003</t>
+          <t>8401020026</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS RED STAR</t>
+          <t>KAKI FUYU</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -21665,88 +21665,88 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>79.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>41.31</v>
+        <v>36.22</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N39" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O39" s="4" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8401020026</t>
+          <t>8404130008</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>KAKI FUYU</t>
+          <t>UVA CRIMSON SIN PEPITA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>3LA150</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -21768,13 +21768,13 @@
         <v>30</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>73.90000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>36.22</v>
+        <v>37.09</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
@@ -21783,16 +21783,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -21810,7 +21810,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -21827,17 +21827,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8404130008</t>
+          <t>8401020027</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>UVA CRIMSON SIN PEPITA</t>
+          <t>KAKI ROJO BRILLANTE</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>3LA150</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -21859,31 +21859,31 @@
         <v>30</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>74.84999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>37.09</v>
+        <v>36.22</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -21896,12 +21896,12 @@
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -21911,24 +21911,24 @@
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8401020027</t>
+          <t>8802040003</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>KAKI ROJO BRILLANTE</t>
+          <t>CORDYLINE AUSTRALIS RED STAR</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -21938,71 +21938,71 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J42" s="4" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O42" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="4" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="K42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="L42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" s="4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -23010,17 +23010,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020037</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MEMBRILLO</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -23051,7 +23051,7 @@
         <v>34.27</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
@@ -23079,12 +23079,12 @@
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -23094,19 +23094,19 @@
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020041</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>NOGAL COMUN</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -23192,12 +23192,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -23233,7 +23233,7 @@
         <v>34.27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -23276,24 +23276,24 @@
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020037</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>MEMBRILLO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -23324,7 +23324,7 @@
         <v>34.27</v>
       </c>
       <c r="K57" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="4" t="n">
         <v>0</v>
@@ -23336,10 +23336,10 @@
         <v>1</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0</v>
@@ -23352,12 +23352,12 @@
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -23367,19 +23367,19 @@
       </c>
       <c r="W57" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020041</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>NOGAL COMUN</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -23415,7 +23415,7 @@
         <v>34.27</v>
       </c>
       <c r="K58" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>1</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -23443,12 +23443,12 @@
       </c>
       <c r="T58" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="W58" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -24921,17 +24921,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8104230005</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>COPROSMA EVENING GLOW</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>C40A30</t>
+          <t>C19A30</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -24941,88 +24941,88 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>68.98999999999999</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>35.42</v>
+        <v>40.82</v>
       </c>
       <c r="K75" s="4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" s="4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T75" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T75" s="6" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8104230005</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>COPROSMA EVENING GLOW</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>C19A30</t>
+          <t>C40A30</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -25032,71 +25032,71 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>74.93000000000001</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>40.82</v>
+        <v>35.42</v>
       </c>
       <c r="K76" s="4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="N76" s="5" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q76" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="R76" s="4" t="n">
+        <v>130</v>
+      </c>
+      <c r="S76" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="Q76" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" s="6" t="inlineStr">
-        <is>
-          <t>Cero</t>
+      <c r="T76" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28015,17 +28015,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8101290001</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>LAGERSTROEMIA INDICA</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>C27A110</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -28035,12 +28035,12 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -28050,13 +28050,13 @@
         <v>1</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>51.95</v>
+        <v>49.95</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>26.78</v>
+        <v>24.96</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
@@ -28068,55 +28068,55 @@
         <v>0.5</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T109" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T109" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>8101290001</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>LAGERSTROEMIA INDICA</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>C27A110</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -28126,12 +28126,12 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -28141,13 +28141,13 @@
         <v>1</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>49.95</v>
+        <v>51.95</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>24.96</v>
+        <v>26.78</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
@@ -28159,38 +28159,38 @@
         <v>0.5</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T110" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T110" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28652,17 +28652,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8303010019</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>ROSAL SEVILLANO ARBUSTIVO</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>20LA100</t>
+          <t>C17A60</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -28672,88 +28672,88 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>49.95</v>
+        <v>50.85</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>25.73</v>
+        <v>26.55</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>33.33</v>
+        <v>60</v>
       </c>
       <c r="L116" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M116" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N116" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O116" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T116" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T116" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>8303010019</t>
+          <t>8802100002</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>ROSAL SEVILLANO ARBUSTIVO</t>
+          <t>WASHINGTONIA ROBUSTA GRUPO</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>C17A60</t>
+          <t>18LA100</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -28763,88 +28763,88 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H117" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" s="4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="J117" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="K117" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L117" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I117" s="4" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="J117" s="4" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="K117" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="L117" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M117" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N117" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N117" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O117" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T117" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T117" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>8802100002</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA GRUPO</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>18LA100</t>
+          <t>20LA100</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -28875,10 +28875,10 @@
         <v>25.73</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L118" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M118" s="5" t="n">
         <v>0.2</v>
@@ -28887,10 +28887,10 @@
         <v>0.5</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q118" s="4" t="n">
         <v>92</v>
@@ -29562,17 +29562,17 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8804220001</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>MUSA MAURELLI</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>C30A25</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -29594,76 +29594,76 @@
         <v>30</v>
       </c>
       <c r="H126" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="4" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J126" s="4" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="K126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N126" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I126" s="4" t="n">
-        <v>45.65</v>
-      </c>
-      <c r="J126" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K126" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L126" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N126" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O126" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P126" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q126" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S126" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T126" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T126" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U126" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V126" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W126" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>8804220001</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>MUSA MAURELLI</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C30A25</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -29685,59 +29685,59 @@
         <v>30</v>
       </c>
       <c r="H127" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" s="4" t="n">
-        <v>45.9</v>
+        <v>45.65</v>
       </c>
       <c r="J127" s="4" t="n">
-        <v>23.73</v>
+        <v>23.5</v>
       </c>
       <c r="K127" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L127" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M127" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N127" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O127" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O127" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P127" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q127" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S127" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T127" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U127" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V127" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W127" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30836,12 +30836,12 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>8104090007</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS COMPACT</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -30892,7 +30892,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="Q140" s="4" t="n">
         <v>0</v>
@@ -30927,12 +30927,12 @@
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8104090007</t>
         </is>
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>EUONYMUS JAPONICUS COMPACT</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -30983,7 +30983,7 @@
         <v>-1</v>
       </c>
       <c r="P141" s="4" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="Q141" s="4" t="n">
         <v>0</v>
@@ -32637,17 +32637,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8401020029</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GALA</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA160</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -32693,7 +32693,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0</v>
@@ -32728,12 +32728,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020064</t>
+          <t>8401020029</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CEREZO LAPINS</t>
+          <t>MANZANO GALA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -32784,7 +32784,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -32819,17 +32819,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8401020064</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>CEREZO LAPINS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA160</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
@@ -33092,12 +33092,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8804240008</t>
+          <t>8401020016</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>OLIVO MANZANILLA</t>
+          <t>CIRUELO JAPONES NEGRO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -33112,12 +33112,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -33127,10 +33127,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>36.95</v>
+        <v>34.95</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>18.82</v>
+        <v>17</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>0</v>
@@ -33148,7 +33148,7 @@
         <v>-1</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0</v>
@@ -33183,12 +33183,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8401020016</t>
+          <t>8401020006</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO JAPONES NEGRO</t>
+          <t>ALMENDRO GUARA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -33224,7 +33224,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -33236,50 +33236,50 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T18" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8401020006</t>
+          <t>8804240008</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO GUARA</t>
+          <t>OLIVO MANZANILLA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -33294,12 +33294,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -33309,13 +33309,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>34.95</v>
+        <v>36.95</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>17</v>
+        <v>18.82</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -33327,38 +33327,38 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -33456,17 +33456,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8401020005</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10LA175</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -33497,10 +33497,10 @@
         <v>17.13</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0.2</v>
@@ -33509,10 +33509,10 @@
         <v>0.5</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>38</v>
@@ -33638,17 +33638,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8401020005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>ALMENDRO MARCONA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA175</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -33679,10 +33679,10 @@
         <v>17.13</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0.2</v>
@@ -33691,10 +33691,10 @@
         <v>0.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>38</v>
@@ -33729,17 +33729,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8104230003</t>
+          <t>8501040004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>CAMELIA SASANQUA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>10LA70</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -33749,43 +33749,43 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H24" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N24" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="4" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O24" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -33803,7 +33803,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -33820,17 +33820,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8501040004</t>
+          <t>8104230003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SASANQUA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>10LA70</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -33840,25 +33840,25 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>33.9</v>
+        <v>36.95</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>16.2</v>
+        <v>18.97</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>0</v>
@@ -33867,16 +33867,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -34275,12 +34275,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8401020074</t>
+          <t>8401020073</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO ENANO</t>
+          <t>ALMENDRO ENANO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -34331,7 +34331,7 @@
         <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -34366,12 +34366,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8401020073</t>
+          <t>8401020074</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO ENANO</t>
+          <t>MELOCOTONERO ENANO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -34422,7 +34422,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -38908,12 +38908,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8801020003</t>
+          <t>8801010003</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
+          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -38964,7 +38964,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q81" s="4" t="n">
         <v>0</v>
@@ -38999,12 +38999,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8801010003</t>
+          <t>8801020003</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>CALAMONDIN CITRUS MITIS PIRAMIDE</t>
+          <t>LIMONERO CITRUS LIMON ESPALDERA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -39055,7 +39055,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
@@ -39818,45 +39818,45 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>8804250003</t>
+          <t>8104090001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM POLYANTHUM ESPALDERA</t>
+          <t>EUONYMUS BRAVO</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>5LA75</t>
         </is>
       </c>
       <c r="D91" s="3" t="inlineStr">
         <is>
-          <t>PROMO2</t>
+          <t>UNICO</t>
         </is>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>17.93</v>
+        <v>17.95</v>
       </c>
       <c r="J91" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="K91" s="4" t="n">
         <v>0</v>
@@ -39865,16 +39865,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N91" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="N91" s="5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O91" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="Q91" s="4" t="n">
         <v>0</v>
@@ -39892,7 +39892,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -39909,45 +39909,45 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>8104090001</t>
+          <t>8804250003</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS BRAVO</t>
+          <t>JASMINUM POLYANTHUM ESPALDERA</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>5LA75</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
-          <t>UNICO</t>
+          <t>PROMO2</t>
         </is>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>17.95</v>
+        <v>17.93</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="K92" s="4" t="n">
         <v>0</v>
@@ -39956,16 +39956,16 @@
         <v>0</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N92" s="5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P92" s="4" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q92" s="4" t="n">
         <v>0</v>
@@ -39983,7 +39983,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -40182,17 +40182,17 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>8501150005</t>
+          <t>8701110002</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA LITTLE GEN</t>
+          <t>PARTHENOCISUS QUINQUEFOLIA</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>2LA140</t>
         </is>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -40202,12 +40202,12 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -40217,10 +40217,10 @@
         <v>1</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>15.95</v>
+        <v>9.99</v>
       </c>
       <c r="J95" s="4" t="n">
-        <v>7.69</v>
+        <v>2.27</v>
       </c>
       <c r="K95" s="4" t="n">
         <v>0</v>
@@ -40238,7 +40238,7 @@
         <v>-1</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q95" s="4" t="n">
         <v>0</v>
@@ -40273,17 +40273,17 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>8701110002</t>
+          <t>8501150005</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>PARTHENOCISUS QUINQUEFOLIA</t>
+          <t>MAGNOLIA GRANDIFLORA LITTLE GEN</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>2LA140</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -40293,12 +40293,12 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -40308,10 +40308,10 @@
         <v>1</v>
       </c>
       <c r="I96" s="4" t="n">
-        <v>9.99</v>
+        <v>15.95</v>
       </c>
       <c r="J96" s="4" t="n">
-        <v>2.27</v>
+        <v>7.69</v>
       </c>
       <c r="K96" s="4" t="n">
         <v>0</v>
@@ -40329,7 +40329,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="4" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Q96" s="4" t="n">
         <v>0</v>
@@ -41365,17 +41365,17 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>8104140007</t>
+          <t>8104140003</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
+          <t>ILEX AQUIFOLIUM ALASKA</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>PROMO50.2</t>
         </is>
       </c>
       <c r="D108" s="3" t="inlineStr">
@@ -41421,7 +41421,7 @@
         <v>-1</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q108" s="4" t="n">
         <v>0</v>
@@ -41456,17 +41456,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8104140003</t>
+          <t>8104140007</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM ALASKA</t>
+          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>PROMO50.2</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -41512,7 +41512,7 @@
         <v>-1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>0</v>
@@ -41729,12 +41729,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>8402020016</t>
+          <t>8402020003</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
+          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -41785,7 +41785,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0</v>
@@ -41820,12 +41820,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>8402020003</t>
+          <t>8402020016</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
+          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -41876,7 +41876,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>0</v>
@@ -44186,17 +44186,17 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>8104090009</t>
+          <t>8104090007</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS VARIEGATUS PICTA LUNA</t>
+          <t>EUONYMUS JAPONICUS COMPACT</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>1I5LA30</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -44221,10 +44221,10 @@
         <v>1</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>4.99</v>
+        <v>4.75</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>0</v>
@@ -44242,7 +44242,7 @@
         <v>-1</v>
       </c>
       <c r="P139" s="4" t="n">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="Q139" s="4" t="n">
         <v>0</v>
@@ -44277,17 +44277,17 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>8104090007</t>
+          <t>8104090009</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS COMPACT</t>
+          <t>EUONYMUS JAPONICUS VARIEGATUS PICTA LUNA</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>1I5LA30</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -44312,10 +44312,10 @@
         <v>1</v>
       </c>
       <c r="I140" s="4" t="n">
-        <v>4.75</v>
+        <v>4.99</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="K140" s="4" t="n">
         <v>0</v>
@@ -44333,7 +44333,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="Q140" s="4" t="n">
         <v>0</v>
@@ -44531,17 +44531,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44551,12 +44551,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44575,7 +44575,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44584,16 +44584,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>56.67</v>
+        <v>10</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -44610,7 +44610,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44622,17 +44622,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44642,12 +44642,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -44666,7 +44666,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44675,19 +44675,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>153.33</v>
+        <v>10</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -44696,12 +44696,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44713,17 +44713,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44733,12 +44733,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44757,7 +44757,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44766,7 +44766,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
@@ -44787,7 +44787,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -44804,17 +44804,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44824,12 +44824,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44848,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44857,16 +44857,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>53.33</v>
+        <v>13.33</v>
       </c>
       <c r="S5" s="5" t="n">
         <v>0</v>
@@ -44883,7 +44883,7 @@
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44895,17 +44895,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44915,12 +44915,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44939,7 +44939,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44948,19 +44948,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -44969,12 +44969,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44986,17 +44986,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45006,12 +45006,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -45030,7 +45030,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45039,19 +45039,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -45060,12 +45060,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45077,17 +45077,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45097,12 +45097,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45121,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45130,7 +45130,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -45151,7 +45151,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -45168,17 +45168,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -45188,12 +45188,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45212,7 +45212,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -45221,19 +45221,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -45242,12 +45242,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -45259,17 +45259,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45279,12 +45279,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45318,13 +45318,13 @@
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>210</v>
+        <v>126.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -45333,12 +45333,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45350,17 +45350,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45370,12 +45370,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45394,7 +45394,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45403,7 +45403,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -45424,7 +45424,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -45441,17 +45441,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45461,12 +45461,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45485,7 +45485,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45494,19 +45494,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -45515,12 +45515,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45532,17 +45532,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45591,13 +45591,13 @@
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>56.67</v>
+        <v>210</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -45606,12 +45606,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45623,17 +45623,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45643,12 +45643,12 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -45682,13 +45682,13 @@
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -45697,12 +45697,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -45714,17 +45714,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45734,12 +45734,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45767,16 +45767,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>306.67</v>
+        <v>293.33</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -45788,12 +45788,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45805,17 +45805,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45825,12 +45825,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45849,7 +45849,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45858,19 +45858,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -45879,12 +45879,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45896,17 +45896,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45916,12 +45916,12 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -45955,10 +45955,10 @@
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -45970,12 +45970,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -45987,17 +45987,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46007,12 +46007,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46040,19 +46040,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -46061,12 +46061,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46078,17 +46078,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46098,12 +46098,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -46122,7 +46122,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46131,19 +46131,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -46152,12 +46152,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46169,17 +46169,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46189,12 +46189,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46213,7 +46213,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46222,7 +46222,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -46243,7 +46243,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -46260,17 +46260,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46304,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46313,19 +46313,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>56.67</v>
+        <v>240</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -46334,12 +46334,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46351,17 +46351,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46371,12 +46371,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46404,19 +46404,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -46425,12 +46425,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46442,17 +46442,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46462,12 +46462,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46486,7 +46486,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46495,19 +46495,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -46516,12 +46516,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46533,17 +46533,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46553,12 +46553,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -46577,7 +46577,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -46586,19 +46586,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -46607,12 +46607,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46624,17 +46624,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46644,12 +46644,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46668,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46677,7 +46677,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
@@ -46698,7 +46698,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -46715,17 +46715,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>230LD300</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -46759,7 +46759,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -46768,7 +46768,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
@@ -46789,7 +46789,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -46806,17 +46806,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -46826,12 +46826,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -46850,7 +46850,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -46859,19 +46859,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -46880,12 +46880,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -46897,17 +46897,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -46950,19 +46950,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>210</v>
+        <v>56.67</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T28" s="7" t="inlineStr">
         <is>
@@ -46971,12 +46971,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -46988,17 +46988,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47008,12 +47008,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47041,19 +47041,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -47062,12 +47062,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47079,17 +47079,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47123,7 +47123,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47132,19 +47132,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>223.33</v>
+        <v>83.33</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -47153,12 +47153,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47170,17 +47170,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47190,12 +47190,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -47223,19 +47223,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>83.33</v>
+        <v>53.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -47244,12 +47244,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -47261,17 +47261,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -47281,12 +47281,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -47335,7 +47335,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -47352,17 +47352,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -47411,13 +47411,13 @@
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -47426,12 +47426,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -47443,17 +47443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -47487,7 +47487,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -47496,7 +47496,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
@@ -47517,7 +47517,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -47534,17 +47534,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -47554,12 +47554,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -47578,7 +47578,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -47587,16 +47587,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>293.33</v>
+        <v>306.67</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -47608,12 +47608,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -47625,17 +47625,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>8804250006</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM SAMBAC</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>C21A150</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -47645,12 +47645,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -47669,7 +47669,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -47678,16 +47678,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>306.67</v>
+        <v>200</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -47699,12 +47699,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -47775,13 +47775,13 @@
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -47790,12 +47790,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -47807,17 +47807,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -47827,12 +47827,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -47851,7 +47851,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -47860,16 +47860,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -47881,12 +47881,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -47898,17 +47898,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8104010007</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>ABELIA X GRANDIFLORA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>5LA60</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -47918,12 +47918,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -47951,19 +47951,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -47972,12 +47972,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -47989,17 +47989,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48042,19 +48042,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -48063,12 +48063,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48080,17 +48080,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>C35A150</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48139,13 +48139,13 @@
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -48154,12 +48154,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48171,17 +48171,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48191,12 +48191,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -48230,10 +48230,10 @@
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>306.67</v>
+        <v>223.33</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -48245,12 +48245,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -48262,17 +48262,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -48282,12 +48282,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -48336,7 +48336,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -48353,17 +48353,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -48373,12 +48373,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -48412,10 +48412,10 @@
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S44" s="5" t="n">
         <v>30</v>
@@ -48427,12 +48427,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -48444,17 +48444,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8104010007</t>
+          <t>8401020033</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ABELIA X GRANDIFLORA</t>
+          <t>MELOCOTON  VID PRECOZ</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>5LA60</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -48464,12 +48464,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -48488,7 +48488,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -48497,16 +48497,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S45" s="5" t="n">
         <v>20</v>
@@ -48523,7 +48523,7 @@
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -48535,17 +48535,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -48555,12 +48555,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -48579,7 +48579,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -48588,19 +48588,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -48609,12 +48609,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -48626,17 +48626,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8804250006</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>JASMINUM SAMBAC</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>C21A150</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -48670,7 +48670,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -48679,7 +48679,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -48700,7 +48700,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -48717,17 +48717,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -48737,12 +48737,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -48761,7 +48761,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -48770,19 +48770,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -48791,12 +48791,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -48808,17 +48808,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -48828,12 +48828,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -48867,13 +48867,13 @@
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -48882,12 +48882,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -48899,17 +48899,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -48919,12 +48919,12 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -48958,10 +48958,10 @@
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>30</v>
@@ -48973,12 +48973,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -48990,17 +48990,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49034,7 +49034,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49043,19 +49043,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -49064,12 +49064,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49081,17 +49081,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49101,12 +49101,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49134,7 +49134,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -49172,17 +49172,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49216,7 +49216,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49225,19 +49225,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>13.33</v>
+        <v>306.67</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -49246,12 +49246,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -49263,17 +49263,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -49283,12 +49283,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -49316,7 +49316,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
@@ -49337,7 +49337,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -49354,17 +49354,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -49398,7 +49398,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -49407,16 +49407,16 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -49428,12 +49428,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -49445,17 +49445,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -49504,13 +49504,13 @@
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -49519,12 +49519,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -49536,17 +49536,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -49610,7 +49610,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -49627,17 +49627,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>230LD300</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -49680,19 +49680,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -49701,12 +49701,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -49718,17 +49718,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -49738,12 +49738,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -49762,7 +49762,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -49771,19 +49771,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -49792,12 +49792,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -49809,17 +49809,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -49829,12 +49829,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -49862,7 +49862,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
@@ -49883,7 +49883,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -49900,17 +49900,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -49944,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -49953,7 +49953,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
@@ -49974,7 +49974,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -49991,17 +49991,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>C35A150</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50011,12 +50011,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -50050,13 +50050,13 @@
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>130</v>
+        <v>56.67</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -50065,12 +50065,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50082,17 +50082,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8106070018</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>25LA160</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50102,12 +50102,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -50156,7 +50156,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -50173,17 +50173,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50193,12 +50193,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50217,7 +50217,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50226,19 +50226,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T64" s="7" t="inlineStr">
         <is>
@@ -50247,12 +50247,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -50264,17 +50264,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -50308,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -50317,19 +50317,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T65" s="7" t="inlineStr">
         <is>
@@ -50338,12 +50338,12 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -50355,12 +50355,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -50375,12 +50375,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -50408,19 +50408,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>240</v>
+        <v>83.33</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -50429,12 +50429,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -50446,17 +50446,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -50466,12 +50466,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -50520,7 +50520,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -50537,17 +50537,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -50596,13 +50596,13 @@
         <v>92</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -50611,12 +50611,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -50628,17 +50628,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -50648,12 +50648,12 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -50687,13 +50687,13 @@
         <v>92</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -50702,12 +50702,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -50719,17 +50719,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8106070018</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>25LA160</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -50763,7 +50763,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -50772,16 +50772,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>306.67</v>
+        <v>153.33</v>
       </c>
       <c r="S70" s="5" t="n">
         <v>30</v>
@@ -50793,12 +50793,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -50810,17 +50810,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -50854,7 +50854,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -50863,7 +50863,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>92</v>
@@ -50884,7 +50884,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -50901,17 +50901,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -50945,7 +50945,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M72" s="5" t="n">
         <v>0</v>
@@ -50954,7 +50954,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>92</v>
@@ -50975,7 +50975,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -50992,17 +50992,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -51012,12 +51012,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -51036,7 +51036,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M73" s="5" t="n">
         <v>0</v>
@@ -51045,16 +51045,16 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S73" s="5" t="n">
         <v>30</v>
@@ -51066,12 +51066,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -51083,17 +51083,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -51103,12 +51103,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -51136,7 +51136,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>92</v>
@@ -51157,7 +51157,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -51174,17 +51174,17 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -51194,12 +51194,12 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -51218,7 +51218,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75" s="5" t="n">
         <v>0</v>
@@ -51227,19 +51227,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R75" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -51248,12 +51248,12 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W75" s="4" t="inlineStr">
@@ -51265,17 +51265,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -51285,12 +51285,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -51309,7 +51309,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -51318,16 +51318,16 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>56.67</v>
+        <v>53.33</v>
       </c>
       <c r="S76" s="5" t="n">
         <v>0</v>
@@ -51344,7 +51344,7 @@
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -51356,17 +51356,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -51376,12 +51376,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -51400,7 +51400,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -51409,19 +51409,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>53.33</v>
+        <v>126.67</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -51430,12 +51430,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -51447,17 +51447,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -51467,12 +51467,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -51491,7 +51491,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -51500,19 +51500,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -51521,12 +51521,12 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -51538,17 +51538,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -51558,12 +51558,12 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -51582,7 +51582,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -51591,19 +51591,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>53.33</v>
+        <v>210</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T79" s="7" t="inlineStr">
         <is>
@@ -51612,12 +51612,12 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
@@ -51629,17 +51629,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -51649,12 +51649,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -51688,13 +51688,13 @@
         <v>92</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>126.67</v>
+        <v>210</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -51703,12 +51703,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -51720,17 +51720,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -51779,13 +51779,13 @@
         <v>92</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T81" s="7" t="inlineStr">
         <is>
@@ -51794,12 +51794,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -51811,17 +51811,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -51831,12 +51831,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -51864,19 +51864,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -51885,12 +51885,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -51902,17 +51902,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -51922,12 +51922,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -51976,7 +51976,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -51993,17 +51993,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -52013,12 +52013,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -52046,16 +52046,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>200</v>
+        <v>306.67</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>30</v>
@@ -52067,12 +52067,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -52084,17 +52084,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -52104,12 +52104,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -52128,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -52137,19 +52137,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -52158,12 +52158,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -52175,17 +52175,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -52219,7 +52219,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -52228,19 +52228,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -52249,12 +52249,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -52266,17 +52266,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -52286,12 +52286,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -52310,7 +52310,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M87" s="5" t="n">
         <v>0</v>
@@ -52319,7 +52319,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>92</v>
@@ -52340,7 +52340,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -52357,17 +52357,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -52377,12 +52377,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -52416,13 +52416,13 @@
         <v>92</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T88" s="7" t="inlineStr">
         <is>
@@ -52431,12 +52431,12 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
@@ -52448,17 +52448,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8401020033</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON  VID PRECOZ</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -52468,12 +52468,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -52507,10 +52507,10 @@
         <v>92</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>126.67</v>
+        <v>130</v>
       </c>
       <c r="S89" s="5" t="n">
         <v>20</v>
@@ -52527,7 +52527,7 @@
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
@@ -5739,17 +5739,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020009</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>CEREZO PICOTA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>90LD18</t>
+          <t>70LD18</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -5830,12 +5830,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8401020009</t>
+          <t>8401020030</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CEREZO PICOTA</t>
+          <t>MANZANO GOLDEN</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -5921,12 +5921,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8401020030</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -6012,17 +6012,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>70LD18</t>
+          <t>90LD18</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -12655,12 +12655,12 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>8401020010</t>
+          <t>8401020036</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>CEREZO BURLAT</t>
+          <t>MELOCOTONERO TARDIO</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -12696,7 +12696,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L134" s="4" t="n">
         <v>0</v>
@@ -12708,50 +12708,50 @@
         <v>2</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T134" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T134" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>8401020036</t>
+          <t>8401020010</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO TARDIO</t>
+          <t>CEREZO BURLAT</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -12787,7 +12787,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L135" s="4" t="n">
         <v>0</v>
@@ -12799,38 +12799,38 @@
         <v>2</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S135" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T135" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T135" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -14111,17 +14111,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8104230004</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>35LA200</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14131,43 +14131,43 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H150" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I150" s="4" t="n">
-        <v>121.95</v>
+        <v>206.46</v>
       </c>
       <c r="J150" s="4" t="n">
-        <v>59.56</v>
+        <v>136.39</v>
       </c>
       <c r="K150" s="4" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L150" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="5" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="N150" s="5" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q150" s="4" t="n">
         <v>0</v>
@@ -14185,7 +14185,7 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
@@ -14293,17 +14293,17 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>8104230004</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>35LA200</t>
         </is>
       </c>
       <c r="D152" s="3" t="inlineStr">
@@ -14313,43 +14313,43 @@
       </c>
       <c r="E152" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F152" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G152" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H152" s="4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I152" s="4" t="n">
-        <v>206.46</v>
+        <v>121.95</v>
       </c>
       <c r="J152" s="4" t="n">
-        <v>136.39</v>
+        <v>59.56</v>
       </c>
       <c r="K152" s="4" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L152" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M152" s="5" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="N152" s="5" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="O152" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P152" s="4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q152" s="4" t="n">
         <v>0</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="U152" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V152" s="4" t="inlineStr">
@@ -16022,12 +16022,12 @@
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -16057,10 +16057,10 @@
         <v>3</v>
       </c>
       <c r="I171" s="4" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J171" s="4" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K171" s="4" t="n">
         <v>150</v>
@@ -16204,12 +16204,12 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>8401020035</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO AGUA</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -16239,10 +16239,10 @@
         <v>3</v>
       </c>
       <c r="I173" s="4" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J173" s="4" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K173" s="4" t="n">
         <v>150</v>
@@ -16260,7 +16260,7 @@
         <v>-1</v>
       </c>
       <c r="P173" s="4" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q173" s="4" t="n">
         <v>0</v>
@@ -16295,12 +16295,12 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020035</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>MELOCOTONERO AGUA</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -16351,7 +16351,7 @@
         <v>-1</v>
       </c>
       <c r="P174" s="4" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q174" s="4" t="n">
         <v>0</v>
@@ -17842,17 +17842,17 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>30LD14</t>
+          <t>C19A65</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
@@ -17874,31 +17874,31 @@
         <v>30</v>
       </c>
       <c r="H191" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="4" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="J191" s="4" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="K191" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="L191" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N191" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I191" s="4" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="J191" s="4" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="K191" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L191" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N191" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O191" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P191" s="4" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="Q191" s="4" t="n">
         <v>92</v>
@@ -17933,17 +17933,17 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>C19A65</t>
+          <t>30LD14</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
@@ -17965,31 +17965,31 @@
         <v>30</v>
       </c>
       <c r="H192" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" s="4" t="n">
-        <v>105.9</v>
+        <v>104.95</v>
       </c>
       <c r="J192" s="4" t="n">
-        <v>54.73</v>
+        <v>53.87</v>
       </c>
       <c r="K192" s="4" t="n">
-        <v>14.29</v>
+        <v>50</v>
       </c>
       <c r="L192" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N192" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O192" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O192" s="4" t="n">
-        <v>12</v>
-      </c>
       <c r="P192" s="4" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="Q192" s="4" t="n">
         <v>92</v>
@@ -20280,17 +20280,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8701140002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>VITIS VINIFERA RED GLOBE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>3I5LA60</t>
+          <t>5LA150</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -20300,12 +20300,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -20315,10 +20315,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>77.95999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>36.67</v>
+        <v>49.25</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>0</v>
@@ -20336,7 +20336,7 @@
         <v>-4</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0</v>
@@ -20371,17 +20371,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8701140002</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA RED GLOBE</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>5LA150</t>
+          <t>3I5LA60</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -20391,12 +20391,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -20406,10 +20406,10 @@
         <v>4</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>91.8</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>49.25</v>
+        <v>36.67</v>
       </c>
       <c r="K25" s="4" t="n">
         <v>0</v>
@@ -20427,7 +20427,7 @@
         <v>-4</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0</v>
@@ -21645,17 +21645,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8401020026</t>
+          <t>8802040003</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>KAKI FUYU</t>
+          <t>CORDYLINE AUSTRALIS RED STAR</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -21665,88 +21665,88 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H39" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="J39" s="4" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" s="5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O39" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I39" s="4" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="K39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P39" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T39" s="7" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8404130008</t>
+          <t>8401020027</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>UVA CRIMSON SIN PEPITA</t>
+          <t>KAKI ROJO BRILLANTE</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>3LA150</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -21768,31 +21768,31 @@
         <v>30</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>74.84999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>37.09</v>
+        <v>36.22</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0</v>
@@ -21805,12 +21805,12 @@
       </c>
       <c r="T40" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -21820,24 +21820,24 @@
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8401020027</t>
+          <t>8404130008</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>KAKI ROJO BRILLANTE</t>
+          <t>UVA CRIMSON SIN PEPITA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>3LA150</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -21859,31 +21859,31 @@
         <v>30</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>73.90000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>36.22</v>
+        <v>37.09</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0</v>
@@ -21896,12 +21896,12 @@
       </c>
       <c r="T41" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -21911,24 +21911,24 @@
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8802040003</t>
+          <t>8401020026</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS RED STAR</t>
+          <t>KAKI FUYU</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -21938,71 +21938,71 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>79.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>41.31</v>
+        <v>36.22</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N42" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O42" s="4" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -23010,17 +23010,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020037</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>MEMBRILLO</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -23051,7 +23051,7 @@
         <v>34.27</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -23063,10 +23063,10 @@
         <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
@@ -23079,12 +23079,12 @@
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -23094,19 +23094,19 @@
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8401020041</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>NOGAL COMUN</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -23157,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
@@ -23192,12 +23192,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -23233,7 +23233,7 @@
         <v>34.27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
         <v>0</v>
@@ -23245,10 +23245,10 @@
         <v>1</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -23276,24 +23276,24 @@
       </c>
       <c r="W56" s="4" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8401020037</t>
+          <t>8401020041</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MEMBRILLO</t>
+          <t>NOGAL COMUN</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="4" t="n">
         <v>0</v>
@@ -23374,12 +23374,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -23430,7 +23430,7 @@
         <v>-2</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0</v>
@@ -28015,17 +28015,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>8101290001</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>LAGERSTROEMIA INDICA</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>C27A110</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -28035,12 +28035,12 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -28050,13 +28050,13 @@
         <v>1</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>49.95</v>
+        <v>51.95</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>24.96</v>
+        <v>26.78</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
@@ -28068,55 +28068,55 @@
         <v>0.5</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T109" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T109" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8101290001</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>LAGERSTROEMIA INDICA</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>C27A110</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -28126,12 +28126,12 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -28141,13 +28141,13 @@
         <v>1</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>51.95</v>
+        <v>49.95</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>26.78</v>
+        <v>24.96</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
@@ -28159,38 +28159,38 @@
         <v>0.5</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T110" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T110" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -28743,17 +28743,17 @@
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>8802100002</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA GRUPO</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>18LA100</t>
+          <t>20LA100</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -28784,10 +28784,10 @@
         <v>25.73</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="L117" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M117" s="5" t="n">
         <v>0.2</v>
@@ -28796,10 +28796,10 @@
         <v>0.5</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="Q117" s="4" t="n">
         <v>92</v>
@@ -28834,17 +28834,17 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8802100002</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>WASHINGTONIA ROBUSTA GRUPO</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
         <is>
-          <t>20LA100</t>
+          <t>18LA100</t>
         </is>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -28875,10 +28875,10 @@
         <v>25.73</v>
       </c>
       <c r="K118" s="4" t="n">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="L118" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M118" s="5" t="n">
         <v>0.2</v>
@@ -28887,10 +28887,10 @@
         <v>0.5</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P118" s="4" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="Q118" s="4" t="n">
         <v>92</v>
@@ -29562,17 +29562,17 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>8804220001</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>MUSA MAURELLI</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C30A25</t>
         </is>
       </c>
       <c r="D126" s="3" t="inlineStr">
@@ -29594,76 +29594,76 @@
         <v>30</v>
       </c>
       <c r="H126" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="4" t="n">
-        <v>45.9</v>
+        <v>45.65</v>
       </c>
       <c r="J126" s="4" t="n">
-        <v>23.73</v>
+        <v>23.5</v>
       </c>
       <c r="K126" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L126" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M126" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N126" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O126" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O126" s="4" t="n">
-        <v>-2</v>
-      </c>
       <c r="P126" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q126" s="4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S126" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T126" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T126" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U126" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V126" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W126" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8804220001</t>
         </is>
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>MUSA MAURELLI</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
         <is>
-          <t>C30A25</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -29685,59 +29685,59 @@
         <v>30</v>
       </c>
       <c r="H127" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="4" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J127" s="4" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="K127" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N127" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I127" s="4" t="n">
-        <v>45.65</v>
-      </c>
-      <c r="J127" s="4" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K127" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L127" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N127" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O127" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P127" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q127" s="4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R127" s="4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S127" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T127" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T127" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U127" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V127" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W127" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -32637,17 +32637,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8401020029</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>MANZANO GALA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10LA160</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -32693,7 +32693,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0</v>
@@ -32728,17 +32728,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8401020029</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GALA</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA160</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -32784,7 +32784,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
@@ -33001,12 +33001,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8401020028</t>
+          <t>8804240008</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MANZANO FUJI</t>
+          <t>OLIVO MANZANILLA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -33021,12 +33021,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -33036,16 +33036,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>34.95</v>
+        <v>36.95</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>17</v>
+        <v>18.82</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0.2</v>
@@ -33054,38 +33054,38 @@
         <v>0.5</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T16" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -33274,12 +33274,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8804240008</t>
+          <t>8401020028</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>OLIVO MANZANILLA</t>
+          <t>MANZANO FUJI</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -33294,12 +33294,12 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -33309,16 +33309,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>36.95</v>
+        <v>34.95</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>18.82</v>
+        <v>17</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0.2</v>
@@ -33327,38 +33327,38 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T19" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -33547,17 +33547,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8401020058</t>
+          <t>8401020005</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MANZANO DELICIOUS ROJO</t>
+          <t>ALMENDRO MARCONA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>10LA140</t>
+          <t>10LA175</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -33588,10 +33588,10 @@
         <v>17.13</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0.2</v>
@@ -33600,10 +33600,10 @@
         <v>0.5</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>38</v>
@@ -33638,17 +33638,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8401020005</t>
+          <t>8401020058</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA</t>
+          <t>MANZANO DELICIOUS ROJO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10LA175</t>
+          <t>10LA140</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -33679,10 +33679,10 @@
         <v>17.13</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0.2</v>
@@ -33691,10 +33691,10 @@
         <v>0.5</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>38</v>
@@ -34275,12 +34275,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8401020073</t>
+          <t>8401020074</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO ENANO</t>
+          <t>MELOCOTONERO ENANO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -34331,7 +34331,7 @@
         <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
@@ -34366,12 +34366,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8401020074</t>
+          <t>8401020073</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO ENANO</t>
+          <t>ALMENDRO ENANO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -34422,7 +34422,7 @@
         <v>-1</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -35640,12 +35640,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8401020020</t>
+          <t>8401020074</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>PERAL ENANO</t>
+          <t>MELOCOTONERO ENANO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -35684,7 +35684,7 @@
         <v>50</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0.2</v>
@@ -35696,7 +35696,7 @@
         <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q45" s="4" t="n">
         <v>92</v>
@@ -35731,12 +35731,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8401020074</t>
+          <t>8401020020</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO ENANO</t>
+          <t>PERAL ENANO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -35775,7 +35775,7 @@
         <v>50</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0.2</v>
@@ -35787,7 +35787,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>92</v>
@@ -36277,17 +36277,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8501040005</t>
+          <t>8104230051</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA YULETIDE</t>
+          <t>HEUCHERA HYBRIDA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>4LA30</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -36297,12 +36297,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -36312,10 +36312,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>25.9</v>
+        <v>29.9</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>12.47</v>
+        <v>16.1</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>0</v>
@@ -36333,7 +36333,7 @@
         <v>-2</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
@@ -36368,17 +36368,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8104230051</t>
+          <t>8501040005</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HEUCHERA HYBRIDA</t>
+          <t>CAMELIA YULETIDE</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>4LA30</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -36388,12 +36388,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -36403,10 +36403,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>29.9</v>
+        <v>25.9</v>
       </c>
       <c r="J53" s="4" t="n">
-        <v>16.1</v>
+        <v>12.47</v>
       </c>
       <c r="K53" s="4" t="n">
         <v>0</v>
@@ -36424,7 +36424,7 @@
         <v>-2</v>
       </c>
       <c r="P53" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0</v>
@@ -41729,12 +41729,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>8402020003</t>
+          <t>8402020016</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
+          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -41785,7 +41785,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0</v>
@@ -41820,12 +41820,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>8402020016</t>
+          <t>8402020003</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
+          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -41876,7 +41876,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q113" s="4" t="n">
         <v>0</v>
@@ -43185,17 +43185,17 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>8104090004</t>
+          <t>8104230057</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS PUNCHELUS VERDE</t>
+          <t>CONRADINA CANENCENS</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D128" s="3" t="inlineStr">
@@ -43217,76 +43217,76 @@
         <v>30</v>
       </c>
       <c r="H128" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" s="4" t="n">
-        <v>9.5</v>
+        <v>9.99</v>
       </c>
       <c r="J128" s="4" t="n">
-        <v>4.88</v>
+        <v>5.32</v>
       </c>
       <c r="K128" s="4" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="L128" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M128" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N128" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O128" s="4" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="P128" s="4" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="Q128" s="4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R128" s="4" t="n">
-        <v>123.33</v>
+        <v>0</v>
       </c>
       <c r="S128" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T128" s="8" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T128" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U128" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V128" s="4" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W128" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
         <is>
-          <t>8104230057</t>
+          <t>8104090004</t>
         </is>
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>CONRADINA CANENCENS</t>
+          <t>EUONYMUS JAPONICUS PUNCHELUS VERDE</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -43308,59 +43308,59 @@
         <v>30</v>
       </c>
       <c r="H129" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J129" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="K129" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="L129" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N129" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I129" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J129" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K129" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N129" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O129" s="4" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="P129" s="4" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q129" s="4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R129" s="4" t="n">
-        <v>0</v>
+        <v>123.33</v>
       </c>
       <c r="S129" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T129" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T129" s="8" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U129" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V129" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W129" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -43913,12 +43913,12 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>8501180002</t>
+          <t>8201070001</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>8501180002409</t>
+          <t>CUPRESSUS MACROCARPA WILMA</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -43933,12 +43933,12 @@
       </c>
       <c r="E136" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G136" s="4" t="n">
@@ -43969,7 +43969,7 @@
         <v>-1</v>
       </c>
       <c r="P136" s="4" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q136" s="4" t="n">
         <v>0</v>
@@ -44004,12 +44004,12 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>8201070001</t>
+          <t>8501180002</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSUS MACROCARPA WILMA</t>
+          <t>8501180002409</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -44024,12 +44024,12 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
@@ -44060,7 +44060,7 @@
         <v>-1</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>0</v>
@@ -44186,17 +44186,17 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>8104090007</t>
+          <t>8104090009</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS COMPACT</t>
+          <t>EUONYMUS JAPONICUS VARIEGATUS PICTA LUNA</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>1I5LA30</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
@@ -44221,10 +44221,10 @@
         <v>1</v>
       </c>
       <c r="I139" s="4" t="n">
-        <v>4.75</v>
+        <v>4.99</v>
       </c>
       <c r="J139" s="4" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="K139" s="4" t="n">
         <v>0</v>
@@ -44242,7 +44242,7 @@
         <v>-1</v>
       </c>
       <c r="P139" s="4" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="Q139" s="4" t="n">
         <v>0</v>
@@ -44277,17 +44277,17 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>8104090009</t>
+          <t>8104090007</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS VARIEGATUS PICTA LUNA</t>
+          <t>EUONYMUS JAPONICUS COMPACT</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>1I5LA30</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -44312,10 +44312,10 @@
         <v>1</v>
       </c>
       <c r="I140" s="4" t="n">
-        <v>4.99</v>
+        <v>4.75</v>
       </c>
       <c r="J140" s="4" t="n">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="K140" s="4" t="n">
         <v>0</v>
@@ -44333,7 +44333,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="4" t="n">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="Q140" s="4" t="n">
         <v>0</v>
@@ -44531,17 +44531,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -44551,12 +44551,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -44575,7 +44575,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -44584,16 +44584,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>10</v>
+        <v>53.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -44610,7 +44610,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -44622,17 +44622,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -44666,7 +44666,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -44675,19 +44675,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -44696,12 +44696,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -44713,17 +44713,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -44733,12 +44733,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -44757,7 +44757,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -44766,19 +44766,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -44787,12 +44787,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -44804,17 +44804,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8401020033</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>MELOCOTON  VID PRECOZ</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -44824,12 +44824,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -44848,7 +44848,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -44857,19 +44857,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>13.33</v>
+        <v>126.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -44878,12 +44878,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -44895,17 +44895,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -44915,12 +44915,12 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -44939,7 +44939,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -44948,19 +44948,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -44969,12 +44969,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -44986,17 +44986,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45030,7 +45030,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45039,7 +45039,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -45060,7 +45060,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -45077,17 +45077,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45097,12 +45097,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45121,7 +45121,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45130,7 +45130,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
@@ -45151,7 +45151,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -45168,17 +45168,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -45188,12 +45188,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -45242,7 +45242,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -45259,17 +45259,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -45279,12 +45279,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -45318,10 +45318,10 @@
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>126.67</v>
+        <v>130</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>20</v>
@@ -45338,7 +45338,7 @@
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -45350,17 +45350,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -45370,12 +45370,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -45394,7 +45394,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -45403,7 +45403,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -45424,7 +45424,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -45441,17 +45441,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -45461,12 +45461,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -45485,7 +45485,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -45494,19 +45494,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -45515,12 +45515,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -45532,17 +45532,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -45552,12 +45552,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -45591,13 +45591,13 @@
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -45606,12 +45606,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -45623,17 +45623,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -45697,7 +45697,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -45714,17 +45714,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -45734,12 +45734,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -45758,7 +45758,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -45767,16 +45767,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>293.33</v>
+        <v>306.67</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -45788,12 +45788,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -45805,17 +45805,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -45825,12 +45825,12 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -45849,7 +45849,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -45858,19 +45858,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -45879,12 +45879,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -45896,17 +45896,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -45940,7 +45940,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -45949,7 +45949,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -45970,7 +45970,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -45987,17 +45987,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46031,7 +46031,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46040,19 +46040,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -46061,12 +46061,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46078,17 +46078,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46122,7 +46122,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46131,19 +46131,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -46152,12 +46152,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46169,17 +46169,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -46189,12 +46189,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -46213,7 +46213,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -46222,16 +46222,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>30</v>
@@ -46243,12 +46243,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -46260,17 +46260,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -46280,12 +46280,12 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -46304,7 +46304,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -46313,16 +46313,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>240</v>
+        <v>306.67</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>30</v>
@@ -46334,12 +46334,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -46351,17 +46351,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -46371,12 +46371,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -46404,19 +46404,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -46425,12 +46425,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -46442,17 +46442,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -46462,12 +46462,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -46486,7 +46486,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -46495,16 +46495,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>53.33</v>
+        <v>60</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>0</v>
@@ -46521,7 +46521,7 @@
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -46533,17 +46533,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>230LD300</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -46592,13 +46592,13 @@
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -46607,12 +46607,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -46624,17 +46624,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -46644,12 +46644,12 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -46668,7 +46668,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -46677,19 +46677,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -46698,12 +46698,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -46715,17 +46715,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>230LD300</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -46735,12 +46735,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -46774,13 +46774,13 @@
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -46789,12 +46789,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -46806,17 +46806,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -46826,12 +46826,12 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -46850,7 +46850,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -46859,7 +46859,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -46880,7 +46880,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -46897,17 +46897,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -46917,12 +46917,12 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -46941,7 +46941,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -46950,19 +46950,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T28" s="7" t="inlineStr">
         <is>
@@ -46971,12 +46971,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -46988,17 +46988,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47008,12 +47008,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -47032,7 +47032,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47041,7 +47041,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
@@ -47062,7 +47062,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -47079,17 +47079,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47099,12 +47099,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47123,7 +47123,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47132,19 +47132,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -47153,12 +47153,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47170,17 +47170,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47190,12 +47190,12 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -47214,7 +47214,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -47223,19 +47223,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -47244,12 +47244,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -47261,17 +47261,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -47281,12 +47281,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -47305,7 +47305,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -47314,19 +47314,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -47335,12 +47335,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -47352,17 +47352,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -47411,10 +47411,10 @@
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S33" s="5" t="n">
         <v>30</v>
@@ -47426,12 +47426,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -47443,17 +47443,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -47463,12 +47463,12 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -47502,10 +47502,10 @@
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>306.67</v>
+        <v>223.33</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -47517,12 +47517,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -47534,17 +47534,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8804250006</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>JASMINUM SAMBAC</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>C21A150</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -47578,7 +47578,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -47587,7 +47587,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -47608,7 +47608,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -47625,17 +47625,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -47645,12 +47645,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -47669,7 +47669,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -47678,19 +47678,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -47699,12 +47699,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -47736,12 +47736,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -47760,7 +47760,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -47769,16 +47769,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>56.67</v>
+        <v>53.33</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>0</v>
@@ -47795,7 +47795,7 @@
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -47807,17 +47807,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -47827,12 +47827,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -47866,13 +47866,13 @@
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>210</v>
+        <v>56.67</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -47881,12 +47881,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -47898,17 +47898,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>8104010007</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ABELIA X GRANDIFLORA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>5LA60</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -47918,12 +47918,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -47942,7 +47942,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -47951,19 +47951,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -47972,12 +47972,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -47989,17 +47989,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48033,7 +48033,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48042,19 +48042,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -48063,12 +48063,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48080,17 +48080,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>C35A150</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48100,12 +48100,12 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -48124,7 +48124,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48133,19 +48133,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>130</v>
+        <v>293.33</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -48154,12 +48154,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48171,17 +48171,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48191,12 +48191,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -48215,7 +48215,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -48224,19 +48224,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>223.33</v>
+        <v>10</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -48245,12 +48245,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -48262,17 +48262,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -48282,12 +48282,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -48336,7 +48336,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -48353,17 +48353,17 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
@@ -48373,12 +48373,12 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -48397,7 +48397,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -48406,7 +48406,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -48427,7 +48427,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -48444,17 +48444,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>8401020033</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTON  VID PRECOZ</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -48464,12 +48464,12 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -48503,13 +48503,13 @@
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -48518,12 +48518,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -48535,17 +48535,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -48555,12 +48555,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -48579,7 +48579,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -48588,19 +48588,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -48609,12 +48609,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -48626,17 +48626,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>8804250006</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JASMINUM SAMBAC</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>C21A150</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -48670,7 +48670,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -48679,7 +48679,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -48700,7 +48700,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -48717,17 +48717,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -48737,12 +48737,12 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -48776,13 +48776,13 @@
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>56.67</v>
+        <v>210</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -48791,12 +48791,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -48808,17 +48808,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8106070018</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>25LA160</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -48828,12 +48828,12 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -48852,7 +48852,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -48861,7 +48861,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
@@ -48882,7 +48882,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -48899,17 +48899,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -48919,12 +48919,12 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -48952,7 +48952,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
@@ -48973,7 +48973,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -48990,17 +48990,17 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -49010,12 +49010,12 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -49049,10 +49049,10 @@
         <v>92</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>30</v>
@@ -49064,12 +49064,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -49081,17 +49081,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49125,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49134,7 +49134,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
@@ -49155,7 +49155,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -49172,17 +49172,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49231,13 +49231,13 @@
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -49246,12 +49246,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -49263,17 +49263,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -49283,12 +49283,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -49307,7 +49307,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -49316,7 +49316,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
@@ -49337,7 +49337,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -49354,17 +49354,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -49374,12 +49374,12 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -49413,13 +49413,13 @@
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>210</v>
+        <v>56.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -49428,12 +49428,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -49445,17 +49445,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -49504,13 +49504,13 @@
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>130</v>
+        <v>306.67</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -49519,12 +49519,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -49536,17 +49536,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -49556,12 +49556,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -49610,7 +49610,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -49627,17 +49627,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -49647,12 +49647,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -49671,7 +49671,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -49680,19 +49680,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -49701,12 +49701,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -49718,17 +49718,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -49738,12 +49738,12 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -49762,7 +49762,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -49771,7 +49771,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
@@ -49792,7 +49792,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -49809,17 +49809,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -49829,12 +49829,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -49853,7 +49853,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -49862,16 +49862,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>306.67</v>
+        <v>153.33</v>
       </c>
       <c r="S60" s="5" t="n">
         <v>30</v>
@@ -49883,12 +49883,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -49900,17 +49900,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -49920,12 +49920,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -49944,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -49953,19 +49953,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -49974,12 +49974,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -49991,17 +49991,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50011,12 +50011,12 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -50050,13 +50050,13 @@
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -50065,12 +50065,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50082,17 +50082,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>8106070018</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>CUPRESSOCYPARIS LEYLANDII SPYRAL</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>25LA160</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50102,12 +50102,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -50126,7 +50126,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -50135,7 +50135,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
@@ -50156,7 +50156,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 73.46€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -50173,17 +50173,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50193,12 +50193,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50217,7 +50217,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50226,19 +50226,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T64" s="7" t="inlineStr">
         <is>
@@ -50247,12 +50247,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -50264,17 +50264,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -50284,12 +50284,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -50308,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -50317,19 +50317,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T65" s="7" t="inlineStr">
         <is>
@@ -50338,12 +50338,12 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -50355,17 +50355,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -50375,12 +50375,12 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -50399,7 +50399,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -50408,19 +50408,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -50429,12 +50429,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -50446,17 +50446,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -50466,12 +50466,12 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -50490,7 +50490,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -50499,7 +50499,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
@@ -50520,7 +50520,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -50537,12 +50537,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -50628,17 +50628,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -50687,10 +50687,10 @@
         <v>92</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S69" s="5" t="n">
         <v>30</v>
@@ -50702,12 +50702,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -50719,17 +50719,17 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -50739,12 +50739,12 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -50763,7 +50763,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M70" s="5" t="n">
         <v>0</v>
@@ -50772,19 +50772,19 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>153.33</v>
+        <v>126.67</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T70" s="7" t="inlineStr">
         <is>
@@ -50793,12 +50793,12 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
@@ -50810,17 +50810,17 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
@@ -50830,12 +50830,12 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -50854,7 +50854,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M71" s="5" t="n">
         <v>0</v>
@@ -50863,19 +50863,19 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -50884,12 +50884,12 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
@@ -50901,17 +50901,17 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -50921,12 +50921,12 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -50975,7 +50975,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -50992,17 +50992,17 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D73" s="3" t="inlineStr">
@@ -51012,12 +51012,12 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -51083,17 +51083,17 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -51103,12 +51103,12 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -51127,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M74" s="5" t="n">
         <v>0</v>
@@ -51136,7 +51136,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>92</v>
@@ -51157,7 +51157,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -51184,7 +51184,7 @@
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D75" s="3" t="inlineStr">
@@ -51248,7 +51248,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -51265,17 +51265,17 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
@@ -51285,12 +51285,12 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -51309,7 +51309,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M76" s="5" t="n">
         <v>0</v>
@@ -51318,16 +51318,16 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R76" s="4" t="n">
-        <v>53.33</v>
+        <v>13.33</v>
       </c>
       <c r="S76" s="5" t="n">
         <v>0</v>
@@ -51344,7 +51344,7 @@
       </c>
       <c r="V76" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W76" s="4" t="inlineStr">
@@ -51356,17 +51356,17 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -51376,12 +51376,12 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -51400,7 +51400,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M77" s="5" t="n">
         <v>0</v>
@@ -51409,19 +51409,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>126.67</v>
+        <v>53.33</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -51430,12 +51430,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -51447,17 +51447,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -51467,12 +51467,12 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -51491,7 +51491,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M78" s="5" t="n">
         <v>0</v>
@@ -51500,7 +51500,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>92</v>
@@ -51521,7 +51521,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -51538,17 +51538,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -51582,7 +51582,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" s="5" t="n">
         <v>0</v>
@@ -51591,19 +51591,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T79" s="7" t="inlineStr">
         <is>
@@ -51612,12 +51612,12 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
@@ -51629,17 +51629,17 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -51649,12 +51649,12 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -51688,10 +51688,10 @@
         <v>92</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S80" s="5" t="n">
         <v>30</v>
@@ -51703,12 +51703,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -51720,17 +51720,17 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>C35A150</t>
         </is>
       </c>
       <c r="D81" s="3" t="inlineStr">
@@ -51764,7 +51764,7 @@
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" s="5" t="n">
         <v>0</v>
@@ -51773,19 +51773,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T81" s="7" t="inlineStr">
         <is>
@@ -51794,12 +51794,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -51811,17 +51811,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -51831,12 +51831,12 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -51855,7 +51855,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M82" s="5" t="n">
         <v>0</v>
@@ -51864,19 +51864,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -51885,12 +51885,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -51902,17 +51902,17 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8104010007</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>ABELIA X GRANDIFLORA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>5LA60</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -51922,12 +51922,12 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -51946,7 +51946,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M83" s="5" t="n">
         <v>0</v>
@@ -51955,19 +51955,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T83" s="7" t="inlineStr">
         <is>
@@ -51976,12 +51976,12 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
@@ -51993,17 +51993,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -52013,12 +52013,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -52037,7 +52037,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M84" s="5" t="n">
         <v>0</v>
@@ -52046,16 +52046,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>306.67</v>
+        <v>200</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>30</v>
@@ -52067,12 +52067,12 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
@@ -52084,17 +52084,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -52128,7 +52128,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" s="5" t="n">
         <v>0</v>
@@ -52137,7 +52137,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>92</v>
@@ -52175,17 +52175,17 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -52219,7 +52219,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M86" s="5" t="n">
         <v>0</v>
@@ -52228,19 +52228,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -52249,12 +52249,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -52266,17 +52266,17 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -52286,12 +52286,12 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -52340,7 +52340,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -52357,17 +52357,17 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -52377,12 +52377,12 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -52416,13 +52416,13 @@
         <v>92</v>
       </c>
       <c r="Q88" s="4" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="R88" s="4" t="n">
-        <v>56.67</v>
+        <v>126.67</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T88" s="7" t="inlineStr">
         <is>
@@ -52431,12 +52431,12 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W88" s="4" t="inlineStr">
@@ -52448,17 +52448,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -52468,12 +52468,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -52507,10 +52507,10 @@
         <v>92</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R89" s="4" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S89" s="5" t="n">
         <v>20</v>
@@ -52527,7 +52527,7 @@
       </c>
       <c r="V89" s="4" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W89" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_VIVERO_P2_2025.xlsx
@@ -5733,12 +5733,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8401020078</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>MELOCOTONERO SPRING CREST</t>
+          <t>CIRUELO PRESIDENT</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -5915,17 +5915,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>8401020078</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>CIRUELO PRESIDENT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>70LD18</t>
+          <t>90LD18</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -6006,12 +6006,12 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>8401020009</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>CEREZO PICOTA</t>
+          <t>MELOCOTONERO SPRING CREST</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -6097,17 +6097,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020009</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>CEREZO PICOTA</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>90LD18</t>
+          <t>70LD18</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -7826,17 +7826,17 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>8401020019</t>
+          <t>8401020009</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>CIRUELO REINA CLAUDIA VERDE</t>
+          <t>CEREZO PICOTA</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>10LA175</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -7867,7 +7867,7 @@
         <v>102.02</v>
       </c>
       <c r="K81" s="3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="L81" s="3" t="n">
         <v>0</v>
@@ -7879,10 +7879,10 @@
         <v>2.9</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="n">
         <v>0</v>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V81" s="3" t="inlineStr">
@@ -7917,17 +7917,17 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>8401020009</t>
+          <t>8401020019</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>CEREZO PICOTA</t>
+          <t>CIRUELO REINA CLAUDIA VERDE</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA175</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -7958,7 +7958,7 @@
         <v>102.02</v>
       </c>
       <c r="K82" s="3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L82" s="3" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>2.9</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q82" s="3" t="n">
         <v>0</v>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
@@ -12558,12 +12558,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>8401020025</t>
+          <t>8401020010</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>HIGUERA NEGRA</t>
+          <t>CEREZO BURLAT</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -12599,7 +12599,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K133" s="3" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L133" s="3" t="n">
         <v>0</v>
@@ -12611,38 +12611,38 @@
         <v>2</v>
       </c>
       <c r="O133" s="3" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P133" s="3" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q133" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R133" s="3" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S133" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T133" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T133" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U133" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
         </is>
       </c>
       <c r="V133" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W133" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12740,12 +12740,12 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>8401020010</t>
+          <t>8401020025</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>CEREZO BURLAT</t>
+          <t>HIGUERA NEGRA</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
@@ -12781,7 +12781,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="K135" s="3" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L135" s="3" t="n">
         <v>0</v>
@@ -12793,38 +12793,38 @@
         <v>2</v>
       </c>
       <c r="O135" s="3" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P135" s="3" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Q135" s="3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R135" s="3" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S135" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T135" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T135" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U135" s="2" t="inlineStr">
         <is>
-          <t>PROMOCIÓN ACTIVA + AJUSTE: Implementar promoción del 15% para estimula demanda. Aumentar visibilidad en punto de venta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V135" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14105,17 +14105,17 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>8104230004</t>
+          <t>8401020034</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>MELOCOTON CARSON</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>35LA200</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
@@ -14125,43 +14125,43 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G150" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H150" s="3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I150" s="3" t="n">
-        <v>206.46</v>
+        <v>121.95</v>
       </c>
       <c r="J150" s="3" t="n">
-        <v>136.39</v>
+        <v>59.56</v>
       </c>
       <c r="K150" s="3" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L150" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M150" s="4" t="n">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="N150" s="4" t="n">
-        <v>7.3</v>
+        <v>0.5</v>
       </c>
       <c r="O150" s="3" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P150" s="3" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Q150" s="3" t="n">
         <v>0</v>
@@ -14179,7 +14179,7 @@
       </c>
       <c r="U150" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V150" s="3" t="inlineStr">
@@ -14196,17 +14196,17 @@
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8104230004</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>35LA200</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
@@ -14216,43 +14216,43 @@
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G151" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H151" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I151" s="3" t="n">
-        <v>121.95</v>
+        <v>206.46</v>
       </c>
       <c r="J151" s="3" t="n">
-        <v>59.56</v>
+        <v>136.39</v>
       </c>
       <c r="K151" s="3" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L151" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M151" s="4" t="n">
-        <v>0.2</v>
+        <v>2.4</v>
       </c>
       <c r="N151" s="4" t="n">
-        <v>0.5</v>
+        <v>7.3</v>
       </c>
       <c r="O151" s="3" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P151" s="3" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q151" s="3" t="n">
         <v>0</v>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="U151" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V151" s="3" t="inlineStr">
@@ -14287,12 +14287,12 @@
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>8401020034</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>MELOCOTON CARSON</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
@@ -14343,7 +14343,7 @@
         <v>-1</v>
       </c>
       <c r="P152" s="3" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q152" s="3" t="n">
         <v>0</v>
@@ -16016,12 +16016,12 @@
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>8401020003</t>
+          <t>8401020044</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>ALBARICOQUERO MONIQUI</t>
+          <t>PERAL CONFERENCE</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
@@ -16051,10 +16051,10 @@
         <v>3</v>
       </c>
       <c r="I171" s="3" t="n">
-        <v>104.85</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="J171" s="3" t="n">
-        <v>51.4</v>
+        <v>43.09</v>
       </c>
       <c r="K171" s="3" t="n">
         <v>150</v>
@@ -16198,12 +16198,12 @@
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>8401020044</t>
+          <t>8401020035</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>PERAL CONFERENCE</t>
+          <t>MELOCOTONERO AGUA</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
@@ -16233,10 +16233,10 @@
         <v>3</v>
       </c>
       <c r="I173" s="3" t="n">
-        <v>95.70999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="J173" s="3" t="n">
-        <v>43.09</v>
+        <v>51.4</v>
       </c>
       <c r="K173" s="3" t="n">
         <v>150</v>
@@ -16254,7 +16254,7 @@
         <v>-1</v>
       </c>
       <c r="P173" s="3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="Q173" s="3" t="n">
         <v>0</v>
@@ -16289,12 +16289,12 @@
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>8401020035</t>
+          <t>8401020003</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>MELOCOTONERO AGUA</t>
+          <t>ALBARICOQUERO MONIQUI</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
@@ -16345,7 +16345,7 @@
         <v>-1</v>
       </c>
       <c r="P174" s="3" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Q174" s="3" t="n">
         <v>0</v>
@@ -17836,17 +17836,17 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>30LD14</t>
+          <t>C19A65</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
@@ -17868,31 +17868,31 @@
         <v>30</v>
       </c>
       <c r="H191" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I191" s="3" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="J191" s="3" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="K191" s="3" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="L191" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N191" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I191" s="3" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="J191" s="3" t="n">
-        <v>53.87</v>
-      </c>
-      <c r="K191" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="L191" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N191" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O191" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P191" s="3" t="n">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="Q191" s="3" t="n">
         <v>92</v>
@@ -17927,17 +17927,17 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>C19A65</t>
+          <t>30LD14</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
@@ -17959,31 +17959,31 @@
         <v>30</v>
       </c>
       <c r="H192" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" s="3" t="n">
-        <v>105.9</v>
+        <v>104.95</v>
       </c>
       <c r="J192" s="3" t="n">
-        <v>54.73</v>
+        <v>53.87</v>
       </c>
       <c r="K192" s="3" t="n">
-        <v>14.29</v>
+        <v>50</v>
       </c>
       <c r="L192" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N192" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O192" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O192" s="3" t="n">
-        <v>12</v>
-      </c>
       <c r="P192" s="3" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="Q192" s="3" t="n">
         <v>92</v>
@@ -19364,12 +19364,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>8801010001</t>
+          <t>8801080001</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CALAMONDIN CITRUS MITIS</t>
+          <t>MANO BUDA-CITRUS MEDICA</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -19420,7 +19420,7 @@
         <v>-2</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>0</v>
@@ -19455,12 +19455,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>8801080001</t>
+          <t>8801010001</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>MANO BUDA-CITRUS MEDICA</t>
+          <t>CALAMONDIN CITRUS MITIS</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -19511,7 +19511,7 @@
         <v>-2</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="3" t="n">
         <v>0</v>
@@ -21639,17 +21639,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>8404130008</t>
+          <t>8401020026</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>UVA CRIMSON SIN PEPITA</t>
+          <t>KAKI FUYU</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>3LA150</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -21671,13 +21671,13 @@
         <v>30</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>74.84999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J39" s="3" t="n">
-        <v>37.09</v>
+        <v>36.22</v>
       </c>
       <c r="K39" s="3" t="n">
         <v>0</v>
@@ -21686,16 +21686,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>0</v>
@@ -21713,7 +21713,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
@@ -21730,17 +21730,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>8401020026</t>
+          <t>8404130008</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>KAKI FUYU</t>
+          <t>UVA CRIMSON SIN PEPITA</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>3LA150</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -21762,13 +21762,13 @@
         <v>30</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>73.90000000000001</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="J40" s="3" t="n">
-        <v>36.22</v>
+        <v>37.09</v>
       </c>
       <c r="K40" s="3" t="n">
         <v>0</v>
@@ -21777,16 +21777,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>0</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
@@ -23004,12 +23004,12 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>8401020002</t>
+          <t>8401020004</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>ALBARICOQUE BULIDA</t>
+          <t>ALMENDRO MOLLAR</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -23045,7 +23045,7 @@
         <v>34.27</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="n">
         <v>0</v>
@@ -23057,10 +23057,10 @@
         <v>1</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P54" s="3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="3" t="n">
         <v>0</v>
@@ -23073,12 +23073,12 @@
       </c>
       <c r="T54" s="5" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -23088,24 +23088,24 @@
       </c>
       <c r="W54" s="3" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>8401020037</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>MEMBRILLO</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -23136,7 +23136,7 @@
         <v>34.27</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3" t="n">
         <v>0</v>
@@ -23148,10 +23148,10 @@
         <v>1</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P55" s="3" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="Q55" s="3" t="n">
         <v>0</v>
@@ -23164,12 +23164,12 @@
       </c>
       <c r="T55" s="5" t="inlineStr">
         <is>
-          <t>Cero</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
@@ -23179,7 +23179,7 @@
       </c>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>13C</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -23277,17 +23277,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>8401020004</t>
+          <t>8401020037</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>ALMENDRO MOLLAR</t>
+          <t>MEMBRILLO</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -23318,7 +23318,7 @@
         <v>34.27</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="n">
         <v>0</v>
@@ -23330,10 +23330,10 @@
         <v>1</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q57" s="3" t="n">
         <v>0</v>
@@ -23346,12 +23346,12 @@
       </c>
       <c r="T57" s="5" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -23361,19 +23361,19 @@
       </c>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8401020002</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>ALBARICOQUE BULIDA</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -23409,7 +23409,7 @@
         <v>34.27</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>1</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="Q58" s="3" t="n">
         <v>0</v>
@@ -23437,12 +23437,12 @@
       </c>
       <c r="T58" s="5" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN PROGRAMADA: Stock agotado con rotación moderada. Mantener nivel de compras anterior. Stock objetivo: 1 unidades.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
@@ -23452,7 +23452,7 @@
       </c>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13C</t>
         </is>
       </c>
     </row>
@@ -25552,12 +25552,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>8701140003</t>
+          <t>8701140001</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA AUTUM ROYA</t>
+          <t>VITIS VINIFERA MOSCATELL</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -25608,7 +25608,7 @@
         <v>-3</v>
       </c>
       <c r="P82" s="3" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="Q82" s="3" t="n">
         <v>0</v>
@@ -25643,12 +25643,12 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>8701140001</t>
+          <t>8701140003</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>VITIS VINIFERA MOSCATELL</t>
+          <t>VITIS VINIFERA AUTUM ROYA</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -25699,7 +25699,7 @@
         <v>-3</v>
       </c>
       <c r="P83" s="3" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="Q83" s="3" t="n">
         <v>0</v>
@@ -26553,17 +26553,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8401020043</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>PERAL BLANQUILLA</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>5LA30</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -26573,49 +26573,49 @@
       </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93" s="3" t="n">
-        <v>53.85</v>
+        <v>53.95</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>26.18</v>
+        <v>26.28</v>
       </c>
       <c r="K93" s="3" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M93" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N93" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="N93" s="4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="O93" s="3" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P93" s="3" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R93" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S93" s="4" t="n">
         <v>0</v>
@@ -26627,34 +26627,34 @@
       </c>
       <c r="U93" s="2" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V93" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W93" s="3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>8401020043</t>
+          <t>8104090016</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>PERAL BLANQUILLA</t>
+          <t>EUONYMUS FORTUNEI EMERALD</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>5LA30</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -26664,83 +26664,83 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G94" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="n">
-        <v>53.95</v>
+        <v>59.85</v>
       </c>
       <c r="J94" s="3" t="n">
-        <v>26.28</v>
+        <v>31.64</v>
       </c>
       <c r="K94" s="3" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M94" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P94" s="3" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R94" s="3" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S94" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T94" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T94" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U94" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V94" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W94" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>8104090016</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>EUONYMUS FORTUNEI EMERALD</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -26770,16 +26770,16 @@
         <v>3</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>59.85</v>
+        <v>53.85</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>31.64</v>
+        <v>26.18</v>
       </c>
       <c r="K95" s="3" t="n">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M95" s="4" t="n">
         <v>0.5</v>
@@ -26788,38 +26788,38 @@
         <v>1.5</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P95" s="3" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="Q95" s="3" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R95" s="3" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S95" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T95" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T95" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U95" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 184 días.</t>
         </is>
       </c>
       <c r="V95" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W95" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -27372,12 +27372,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>8501010005</t>
+          <t>8103310003</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>ACER PALMATUM CRIMSOM SENTRY COPA</t>
+          <t>PRUNUS CERASIF NIGRA COPA</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -27392,12 +27392,12 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G102" s="3" t="n">
@@ -27428,7 +27428,7 @@
         <v>-1</v>
       </c>
       <c r="P102" s="3" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="Q102" s="3" t="n">
         <v>0</v>
@@ -27463,12 +27463,12 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>8103310003</t>
+          <t>8501010005</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>PRUNUS CERASIF NIGRA COPA</t>
+          <t>ACER PALMATUM CRIMSOM SENTRY COPA</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -27483,12 +27483,12 @@
       </c>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G103" s="3" t="n">
@@ -27519,7 +27519,7 @@
         <v>-1</v>
       </c>
       <c r="P103" s="3" t="n">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="Q103" s="3" t="n">
         <v>0</v>
@@ -29556,17 +29556,17 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>8804270001</t>
+          <t>8804220001</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
+          <t>MUSA MAURELLI</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>C30A25</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
@@ -29588,76 +29588,76 @@
         <v>30</v>
       </c>
       <c r="H126" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="J126" s="3" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="K126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N126" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I126" s="3" t="n">
-        <v>45.65</v>
-      </c>
-      <c r="J126" s="3" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="K126" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="L126" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M126" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N126" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O126" s="3" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P126" s="3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Q126" s="3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="R126" s="3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="S126" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T126" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T126" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U126" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V126" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W126" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>8804220001</t>
+          <t>8804270001</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>MUSA MAURELLI</t>
+          <t>HIBISCUS ROSA SINENSIS ARBUSTIVO</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C30A25</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
@@ -29679,59 +29679,59 @@
         <v>30</v>
       </c>
       <c r="H127" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" s="3" t="n">
-        <v>45.9</v>
+        <v>45.65</v>
       </c>
       <c r="J127" s="3" t="n">
-        <v>23.73</v>
+        <v>23.5</v>
       </c>
       <c r="K127" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L127" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M127" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N127" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O127" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O127" s="3" t="n">
-        <v>-2</v>
-      </c>
       <c r="P127" s="3" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="Q127" s="3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R127" s="3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S127" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T127" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T127" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U127" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V127" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W127" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30648,17 +30648,17 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>8501180001</t>
+          <t>8801080002</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>PIERIS JAPONICA "MOUNTAIN FIRE"</t>
+          <t>POMELO CITRUS PARADISI</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>5LA45</t>
+          <t>6LA120</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
@@ -30668,12 +30668,12 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G138" s="3" t="n">
@@ -30683,10 +30683,10 @@
         <v>2</v>
       </c>
       <c r="I138" s="3" t="n">
-        <v>43.9</v>
+        <v>41.7</v>
       </c>
       <c r="J138" s="3" t="n">
-        <v>23.23</v>
+        <v>21.23</v>
       </c>
       <c r="K138" s="3" t="n">
         <v>0</v>
@@ -30704,7 +30704,7 @@
         <v>-2</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q138" s="3" t="n">
         <v>0</v>
@@ -30739,17 +30739,17 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>8801080002</t>
+          <t>8501180001</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>POMELO CITRUS PARADISI</t>
+          <t>PIERIS JAPONICA "MOUNTAIN FIRE"</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>6LA120</t>
+          <t>5LA45</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
@@ -30759,12 +30759,12 @@
       </c>
       <c r="E139" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F139" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G139" s="3" t="n">
@@ -30774,10 +30774,10 @@
         <v>2</v>
       </c>
       <c r="I139" s="3" t="n">
-        <v>41.7</v>
+        <v>43.9</v>
       </c>
       <c r="J139" s="3" t="n">
-        <v>21.23</v>
+        <v>23.23</v>
       </c>
       <c r="K139" s="3" t="n">
         <v>0</v>
@@ -30795,7 +30795,7 @@
         <v>-2</v>
       </c>
       <c r="P139" s="3" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q139" s="3" t="n">
         <v>0</v>
@@ -30830,12 +30830,12 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>8104090002</t>
+          <t>8104090007</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
+          <t>EUONYMUS JAPONICUS COMPACT</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
@@ -30886,7 +30886,7 @@
         <v>-1</v>
       </c>
       <c r="P140" s="3" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="Q140" s="3" t="n">
         <v>0</v>
@@ -30921,12 +30921,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>8104090007</t>
+          <t>8104090002</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS COMPACT</t>
+          <t>EUONYMUS JAPONICUS  ALBOMARGINATUS</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
@@ -30977,7 +30977,7 @@
         <v>-1</v>
       </c>
       <c r="P141" s="3" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="Q141" s="3" t="n">
         <v>0</v>
@@ -32540,17 +32540,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8401020064</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>CEREZO LAPINS</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10LA160</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -32596,7 +32596,7 @@
         <v>-1</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>0</v>
@@ -32813,17 +32813,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>8401020064</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CEREZO LAPINS</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>10LA160</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -32869,7 +32869,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="3" t="n">
         <v>0</v>
@@ -32995,12 +32995,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>8401020016</t>
+          <t>8401020006</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CIRUELO JAPONES NEGRO</t>
+          <t>ALMENDRO GUARA</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -33036,7 +33036,7 @@
         <v>17</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3" t="n">
         <v>0</v>
@@ -33048,50 +33048,50 @@
         <v>0.5</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T16" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>8401020006</t>
+          <t>8804240008</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>ALMENDRO GUARA</t>
+          <t>OLIVO MANZANILLA</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -33106,12 +33106,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -33121,13 +33121,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>34.95</v>
+        <v>36.95</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>17</v>
+        <v>18.82</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
         <v>0</v>
@@ -33139,50 +33139,50 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T17" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>8804240008</t>
+          <t>8401020028</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>OLIVO MANZANILLA</t>
+          <t>MANZANO FUJI</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -33197,12 +33197,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -33212,16 +33212,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>36.95</v>
+        <v>34.95</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>18.82</v>
+        <v>17</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0.2</v>
@@ -33230,50 +33230,50 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>0</v>
+        <v>126.67</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T18" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>8401020028</t>
+          <t>8401020016</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>MANZANO FUJI</t>
+          <t>CIRUELO JAPONES NEGRO</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -33309,10 +33309,10 @@
         <v>17</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0.2</v>
@@ -33321,38 +33321,38 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="3" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R19" s="3" t="n">
-        <v>126.67</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T19" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -33723,17 +33723,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>8501040004</t>
+          <t>8104230003</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>CAMELIA SASANQUA</t>
+          <t>ARBUTUS UNEDO</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3LA60</t>
+          <t>10LA70</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -33743,25 +33743,25 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>33.9</v>
+        <v>36.95</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>16.2</v>
+        <v>18.97</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>0</v>
@@ -33770,16 +33770,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>0</v>
@@ -33797,7 +33797,7 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
@@ -33814,17 +33814,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>8104230003</t>
+          <t>8501040004</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>ARBUTUS UNEDO</t>
+          <t>CAMELIA SASANQUA</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10LA70</t>
+          <t>3LA60</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -33834,43 +33834,43 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N25" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="3" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N25" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O25" s="3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
@@ -36271,17 +36271,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>8501040005</t>
+          <t>8104230051</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>CAMELIA YULETIDE</t>
+          <t>HEUCHERA HYBRIDA</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>4LA30</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -36291,12 +36291,12 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G52" s="3" t="n">
@@ -36306,10 +36306,10 @@
         <v>2</v>
       </c>
       <c r="I52" s="3" t="n">
-        <v>25.9</v>
+        <v>29.9</v>
       </c>
       <c r="J52" s="3" t="n">
-        <v>12.47</v>
+        <v>16.1</v>
       </c>
       <c r="K52" s="3" t="n">
         <v>0</v>
@@ -36327,7 +36327,7 @@
         <v>-2</v>
       </c>
       <c r="P52" s="3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q52" s="3" t="n">
         <v>0</v>
@@ -36362,17 +36362,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>8104230051</t>
+          <t>8501040005</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>HEUCHERA HYBRIDA</t>
+          <t>CAMELIA YULETIDE</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>4LA30</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -36382,12 +36382,12 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -36397,10 +36397,10 @@
         <v>2</v>
       </c>
       <c r="I53" s="3" t="n">
-        <v>29.9</v>
+        <v>25.9</v>
       </c>
       <c r="J53" s="3" t="n">
-        <v>16.1</v>
+        <v>12.47</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>0</v>
@@ -36418,7 +36418,7 @@
         <v>-2</v>
       </c>
       <c r="P53" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q53" s="3" t="n">
         <v>0</v>
@@ -40176,17 +40176,17 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>8701110002</t>
+          <t>8501150005</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>PARTHENOCISUS QUINQUEFOLIA</t>
+          <t>MAGNOLIA GRANDIFLORA LITTLE GEN</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>2LA140</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
@@ -40196,12 +40196,12 @@
       </c>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G95" s="3" t="n">
@@ -40211,10 +40211,10 @@
         <v>1</v>
       </c>
       <c r="I95" s="3" t="n">
-        <v>9.99</v>
+        <v>15.95</v>
       </c>
       <c r="J95" s="3" t="n">
-        <v>2.27</v>
+        <v>7.69</v>
       </c>
       <c r="K95" s="3" t="n">
         <v>0</v>
@@ -40232,7 +40232,7 @@
         <v>-1</v>
       </c>
       <c r="P95" s="3" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Q95" s="3" t="n">
         <v>0</v>
@@ -40267,17 +40267,17 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>8501150005</t>
+          <t>8701110002</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA LITTLE GEN</t>
+          <t>PARTHENOCISUS QUINQUEFOLIA</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>2LA140</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -40287,12 +40287,12 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G96" s="3" t="n">
@@ -40302,10 +40302,10 @@
         <v>1</v>
       </c>
       <c r="I96" s="3" t="n">
-        <v>15.95</v>
+        <v>9.99</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>7.69</v>
+        <v>2.27</v>
       </c>
       <c r="K96" s="3" t="n">
         <v>0</v>
@@ -40323,7 +40323,7 @@
         <v>-1</v>
       </c>
       <c r="P96" s="3" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="Q96" s="3" t="n">
         <v>0</v>
@@ -41359,17 +41359,17 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>8104140007</t>
+          <t>8104140003</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
+          <t>ILEX AQUIFOLIUM ALASKA</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>PROMO50</t>
+          <t>PROMO50.2</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
@@ -41415,7 +41415,7 @@
         <v>-1</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q108" s="3" t="n">
         <v>0</v>
@@ -41450,17 +41450,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>8104140003</t>
+          <t>8104140007</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>ILEX AQUIFOLIUM ALASKA</t>
+          <t>ILEX AQUIFOLIUM SILVER QUEEN</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>PROMO50.2</t>
+          <t>PROMO50</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -41506,7 +41506,7 @@
         <v>-1</v>
       </c>
       <c r="P109" s="3" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q109" s="3" t="n">
         <v>0</v>
@@ -41723,12 +41723,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>8402020003</t>
+          <t>8402020016</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
+          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -41779,7 +41779,7 @@
         <v>-1</v>
       </c>
       <c r="P112" s="3" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q112" s="3" t="n">
         <v>0</v>
@@ -41814,12 +41814,12 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>8402020016</t>
+          <t>8402020003</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>MANZANO GOLDEN 1 AÑO EN CEPELLON</t>
+          <t>ALMENDRO MARCONA 1 AÑO EN CEPELLON</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
@@ -41870,7 +41870,7 @@
         <v>-1</v>
       </c>
       <c r="P113" s="3" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q113" s="3" t="n">
         <v>0</v>
@@ -43179,17 +43179,17 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>8104090004</t>
+          <t>8104230057</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>EUONYMUS JAPONICUS PUNCHELUS VERDE</t>
+          <t>CONRADINA CANENCENS</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>M13A30</t>
+          <t>2I5LA45</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
@@ -43211,76 +43211,76 @@
         <v>30</v>
       </c>
       <c r="H128" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" s="3" t="n">
-        <v>9.5</v>
+        <v>9.99</v>
       </c>
       <c r="J128" s="3" t="n">
-        <v>4.88</v>
+        <v>5.32</v>
       </c>
       <c r="K128" s="3" t="n">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="L128" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M128" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N128" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O128" s="3" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="P128" s="3" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="Q128" s="3" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R128" s="3" t="n">
-        <v>123.33</v>
+        <v>0</v>
       </c>
       <c r="S128" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T128" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T128" s="5" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U128" s="2" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V128" s="3" t="inlineStr">
         <is>
-          <t>Compra 24/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W128" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>8104230057</t>
+          <t>8104090004</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>CONRADINA CANENCENS</t>
+          <t>EUONYMUS JAPONICUS PUNCHELUS VERDE</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>2I5LA45</t>
+          <t>M13A30</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
@@ -43302,59 +43302,59 @@
         <v>30</v>
       </c>
       <c r="H129" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J129" s="3" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="K129" s="3" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="L129" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N129" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I129" s="3" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="J129" s="3" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="N129" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="O129" s="3" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="P129" s="3" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="Q129" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="R129" s="3" t="n">
-        <v>0</v>
+        <v>123.33</v>
       </c>
       <c r="S129" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T129" s="5" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T129" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U129" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V129" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 24/04/2025</t>
         </is>
       </c>
       <c r="W129" s="3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -43907,12 +43907,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>8201070001</t>
+          <t>8501180002</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>CUPRESSUS MACROCARPA WILMA</t>
+          <t>8501180002409</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
@@ -43927,12 +43927,12 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G136" s="3" t="n">
@@ -43963,7 +43963,7 @@
         <v>-1</v>
       </c>
       <c r="P136" s="3" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q136" s="3" t="n">
         <v>0</v>
@@ -43998,12 +43998,12 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>8501180002</t>
+          <t>8201070001</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>8501180002409</t>
+          <t>CUPRESSUS MACROCARPA WILMA</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
@@ -44018,12 +44018,12 @@
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G137" s="3" t="n">
@@ -44054,7 +44054,7 @@
         <v>-1</v>
       </c>
       <c r="P137" s="3" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q137" s="3" t="n">
         <v>0</v>
@@ -44525,17 +44525,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8104230060</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>ABUTILON MEGAPOTANICUM</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>230LD300</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -44545,12 +44545,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -44569,7 +44569,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -44578,16 +44578,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>306.67</v>
+        <v>200</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>30</v>
@@ -44599,12 +44599,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -44616,17 +44616,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>8801020001</t>
+          <t>8401020059</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>LIMONERO CITRUS LIMON</t>
+          <t>MANZANO ENANO</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>110LA200</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -44636,12 +44636,12 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -44690,7 +44690,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -44707,17 +44707,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8701040008</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>CAMPSIS RADICANS FLAVA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>45LD14</t>
+          <t>5I5LA200</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -44727,12 +44727,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -44751,7 +44751,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -44760,19 +44760,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -44781,12 +44781,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -44798,17 +44798,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8501040006</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>CAMELIA SPRING FESTIVAL</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50LA80</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -44818,12 +44818,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -44842,7 +44842,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>0</v>
@@ -44851,7 +44851,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>92</v>
@@ -44872,7 +44872,7 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
@@ -44889,17 +44889,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>8804110000</t>
+          <t>8804110001</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA PIRAMIDE</t>
+          <t>DIPLADENIA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>C35A170</t>
+          <t>C32A70</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -44933,7 +44933,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -44942,7 +44942,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>92</v>
@@ -44980,17 +44980,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>8404070001</t>
+          <t>8303020010</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>RIBES RUBRUM GROSELLA BLANCA</t>
+          <t>ROSA COPA 1/2 FUSTA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>7LA120</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -45000,12 +45000,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ROSALES</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -45024,7 +45024,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -45033,19 +45033,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T7" s="6" t="inlineStr">
         <is>
@@ -45054,12 +45054,12 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="3" t="inlineStr">
@@ -45071,17 +45071,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>8401020061</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>NECTARINA BLANCA</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>110LA180</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -45091,12 +45091,12 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -45130,13 +45130,13 @@
         <v>92</v>
       </c>
       <c r="Q8" s="3" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R8" s="3" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -45145,12 +45145,12 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="3" t="inlineStr">
@@ -45162,17 +45162,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>8804110010</t>
+          <t>8401020042</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
+          <t>PARAGUAYO</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>C25A90</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -45182,12 +45182,12 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -45221,10 +45221,10 @@
         <v>92</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>20</v>
@@ -45241,7 +45241,7 @@
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -45253,17 +45253,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8501030001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>GARDENIA JASMINOIDE</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>1I6LA20</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -45273,12 +45273,12 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -45297,7 +45297,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -45306,19 +45306,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>92</v>
+        <v>3</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>306.67</v>
+        <v>10</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -45327,12 +45327,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -45344,17 +45344,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>8802050001</t>
+          <t>8802080002</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CYCA REVOLUTA</t>
+          <t>PHORMIUM TENAX VARIEGATA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26LA40</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -45388,7 +45388,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -45397,7 +45397,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>92</v>
@@ -45418,7 +45418,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -45435,17 +45435,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>8104020001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>AUCUBA JAPONICA CROTONOFILIA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10LA90</t>
+          <t>50LD12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -45455,12 +45455,12 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -45479,7 +45479,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -45488,7 +45488,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>92</v>
@@ -45509,7 +45509,7 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
@@ -45526,17 +45526,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8101290002</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>LIGUSTRUM JAPONICUM</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>1I5LA40</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -45570,7 +45570,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -45579,7 +45579,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>92</v>
@@ -45617,17 +45617,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>8106070017</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>LEPTOSPERMUM SCOPARIUM</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4LA70</t>
+          <t>230LD300</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -45637,12 +45637,12 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -45661,7 +45661,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -45670,7 +45670,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>92</v>
@@ -45691,7 +45691,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 413.18€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -45708,17 +45708,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35LA140</t>
+          <t>30LD8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -45728,12 +45728,12 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -45767,10 +45767,10 @@
         <v>92</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S15" s="4" t="n">
         <v>30</v>
@@ -45782,12 +45782,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -45799,17 +45799,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8401020057</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>NECTARINO ENANO</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>110LA180</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -45819,12 +45819,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -45873,7 +45873,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 206.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
@@ -45890,17 +45890,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>8203010003</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>25LD10</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -45910,12 +45910,12 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -45949,13 +45949,13 @@
         <v>92</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
@@ -45964,12 +45964,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -45981,17 +45981,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>8104230060</t>
+          <t>8802110001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>ABUTILON MEGAPOTANICUM</t>
+          <t>YUCCA ELEGANS</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2I5LA40</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -46001,12 +46001,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -46025,7 +46025,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -46034,19 +46034,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="3" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="S18" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -46055,12 +46055,12 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W18" s="3" t="inlineStr">
@@ -46072,17 +46072,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8701160000</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>STEPHANOTIS JASMINOIDES</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>70LA180</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -46092,12 +46092,12 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TREPADORAS</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -46116,7 +46116,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>0</v>
@@ -46125,7 +46125,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>92</v>
@@ -46146,7 +46146,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -46163,17 +46163,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>8203010005</t>
+          <t>8804110004</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
+          <t>DIPLADENIA DOBLE ARCO</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2I5LA25</t>
+          <t>C25A120</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -46183,12 +46183,12 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -46207,7 +46207,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -46216,19 +46216,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>53.33</v>
+        <v>130</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T20" s="6" t="inlineStr">
         <is>
@@ -46237,12 +46237,12 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -46254,17 +46254,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>8101140001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDAMBAR STYRACIFLUA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30LD12</t>
+          <t>10LA180</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -46274,12 +46274,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -46298,7 +46298,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -46307,7 +46307,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>92</v>
@@ -46328,7 +46328,7 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -46345,17 +46345,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>8701040008</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CAMPSIS RADICANS FLAVA</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5I5LA200</t>
+          <t>160LA120</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -46365,12 +46365,12 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -46389,7 +46389,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -46398,7 +46398,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>92</v>
@@ -46419,7 +46419,7 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 82.53€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
@@ -46436,17 +46436,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20LD6</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -46456,12 +46456,12 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -46480,7 +46480,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -46489,16 +46489,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S23" s="4" t="n">
         <v>30</v>
@@ -46510,12 +46510,12 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="3" t="inlineStr">
@@ -46527,17 +46527,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>8804110001</t>
+          <t>8802110004</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA</t>
+          <t>YUCCA ELEPHANTIPES JEWEL</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>C32A70</t>
+          <t>4LA50</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -46571,7 +46571,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -46580,19 +46580,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
@@ -46601,12 +46601,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -46618,17 +46618,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>285LA220</t>
+          <t>70LD100</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -46638,12 +46638,12 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -46662,7 +46662,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>0</v>
@@ -46671,7 +46671,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>92</v>
@@ -46692,7 +46692,7 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
@@ -46709,17 +46709,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>8401020032</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>MANZANO REINETA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>20LD12</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -46729,12 +46729,12 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -46753,7 +46753,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -46762,19 +46762,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>126.67</v>
+        <v>210</v>
       </c>
       <c r="S26" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T26" s="6" t="inlineStr">
         <is>
@@ -46783,12 +46783,12 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
@@ -46800,17 +46800,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>8804110008</t>
+          <t>8501110005</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA TRIPLE ARCO</t>
+          <t>HYDRANGEA MAGICAL</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>3I5LA40</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -46820,12 +46820,12 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -46844,7 +46844,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>0</v>
@@ -46853,19 +46853,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T27" s="6" t="inlineStr">
         <is>
@@ -46874,12 +46874,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 28/05/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -46891,17 +46891,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8804110000</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>DIPLADENIA PIRAMIDE</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>45LD18</t>
+          <t>C35A170</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -46950,13 +46950,13 @@
         <v>92</v>
       </c>
       <c r="Q28" s="3" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R28" s="3" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -46965,12 +46965,12 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W28" s="3" t="inlineStr">
@@ -46982,17 +46982,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8401020061</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>NECTARINA BLANCA</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>C40A180</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -47002,12 +47002,12 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -47041,10 +47041,10 @@
         <v>92</v>
       </c>
       <c r="Q29" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S29" s="4" t="n">
         <v>20</v>
@@ -47061,7 +47061,7 @@
       </c>
       <c r="V29" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W29" s="3" t="inlineStr">
@@ -47073,17 +47073,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>8203010014</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>35LA140</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -47093,12 +47093,12 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
@@ -47117,7 +47117,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>0</v>
@@ -47126,19 +47126,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
         <is>
@@ -47147,12 +47147,12 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -47164,17 +47164,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8804270003</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>HIBISCUS ROSA SINENSIS COPA</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>70LD100</t>
+          <t>C21A70</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -47208,7 +47208,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>0</v>
@@ -47217,19 +47217,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
@@ -47238,12 +47238,12 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -47255,17 +47255,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>110LA250</t>
+          <t>45LD18</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -47329,7 +47329,7 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 84.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
@@ -47346,17 +47346,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>8401020057</t>
+          <t>8103110000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>NECTARINO ENANO</t>
+          <t>CORNUX MIX</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>C19A60</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -47366,12 +47366,12 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -47390,7 +47390,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
@@ -47399,16 +47399,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>306.67</v>
+        <v>293.33</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>30</v>
@@ -47420,12 +47420,12 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 04/03/2025</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -47437,17 +47437,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>18LA220</t>
+          <t>20LD6</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -47457,12 +47457,12 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -47481,7 +47481,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -47490,16 +47490,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>30</v>
@@ -47511,12 +47511,12 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -47528,17 +47528,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>8401020039</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>NECTARINA AMARILLA</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>110LA250</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -47548,12 +47548,12 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
@@ -47587,13 +47587,13 @@
         <v>92</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
@@ -47602,12 +47602,12 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
@@ -47619,17 +47619,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>30LD10</t>
+          <t>285LA220</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -47663,7 +47663,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>0</v>
@@ -47672,16 +47672,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="3" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>30</v>
@@ -47693,12 +47693,12 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 283.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="3" t="inlineStr">
@@ -47710,17 +47710,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8804110010</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>DIPLADENIA 4 CAÑAS TRICOLOR</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>C25A90</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -47754,7 +47754,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>0</v>
@@ -47763,19 +47763,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
@@ -47784,12 +47784,12 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -47801,17 +47801,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8401020039</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>NECTARINA AMARILLA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>C35A150</t>
+          <t>15LA150</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -47821,12 +47821,12 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G38" s="3" t="n">
@@ -47860,10 +47860,10 @@
         <v>92</v>
       </c>
       <c r="Q38" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R38" s="3" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>20</v>
@@ -47880,7 +47880,7 @@
       </c>
       <c r="V38" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W38" s="3" t="inlineStr">
@@ -47892,17 +47892,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>20LD12</t>
+          <t>C35A150</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -47951,13 +47951,13 @@
         <v>92</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
@@ -47966,12 +47966,12 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
@@ -48074,17 +48074,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8401020075</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>DIOSPYROS KAKI</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>25LD10</t>
+          <t>T20A50</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -48094,12 +48094,12 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
@@ -48133,10 +48133,10 @@
         <v>92</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>306.67</v>
+        <v>223.33</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>30</v>
@@ -48148,12 +48148,12 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 25/03/2025</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
@@ -48165,17 +48165,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>8802100001</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>WASHINGTONIA ROBUSTA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>70LA200</t>
+          <t>35LD14</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -48224,10 +48224,10 @@
         <v>92</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>30</v>
@@ -48239,12 +48239,12 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
@@ -48256,17 +48256,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>8401020059</t>
+          <t>8802080001</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>MANZANO ENANO</t>
+          <t>PHORMIUM TENAX</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>3LA40</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -48276,12 +48276,12 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
@@ -48300,7 +48300,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>0</v>
@@ -48309,7 +48309,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>92</v>
@@ -48330,7 +48330,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -48347,17 +48347,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>8804270003</t>
+          <t>8804250006</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>HIBISCUS ROSA SINENSIS COPA</t>
+          <t>JASMINUM SAMBAC</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>C21A70</t>
+          <t>C21A150</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -48391,7 +48391,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0</v>
@@ -48400,19 +48400,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T44" s="6" t="inlineStr">
         <is>
@@ -48421,12 +48421,12 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
@@ -48438,17 +48438,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>8102040002</t>
+          <t>8203010010</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>PHYLLOSTACHYS BISSETTI</t>
+          <t>JUNIPERUS PROCUMBENS NANA</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>10LA225</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -48458,12 +48458,12 @@
       </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
@@ -48482,7 +48482,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0</v>
@@ -48491,19 +48491,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S45" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -48512,12 +48512,12 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
@@ -48529,17 +48529,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8801020001</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>LIMONERO CITRUS LIMON</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>110LA200</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -48588,10 +48588,10 @@
         <v>92</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>30</v>
@@ -48603,12 +48603,12 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 203.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
@@ -48620,17 +48620,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>8802040005</t>
+          <t>8802090001</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>CORDYLINE AUSTRALIS DAZZLER</t>
+          <t>TRACHYCARPUS FORTUNEI</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>2I5LA60</t>
+          <t>35LD50</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -48664,7 +48664,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>0</v>
@@ -48673,7 +48673,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>92</v>
@@ -48694,7 +48694,7 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
@@ -48711,17 +48711,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>8101290002</t>
+          <t>8802040005</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>LIGUSTRUM JAPONICUM</t>
+          <t>CORDYLINE AUSTRALIS DAZZLER</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>1I5LA40</t>
+          <t>2I5LA60</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -48731,12 +48731,12 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -48755,7 +48755,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>0</v>
@@ -48764,19 +48764,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R48" s="3" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T48" s="6" t="inlineStr">
         <is>
@@ -48785,12 +48785,12 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 70.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="3" t="inlineStr">
@@ -48802,17 +48802,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>8802080000</t>
+          <t>8104020001</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>PHORMIUM</t>
+          <t>AUCUBA JAPONICA CROTONOFILIA</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>10LA60</t>
+          <t>10LA90</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -48822,12 +48822,12 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -48846,7 +48846,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>0</v>
@@ -48855,7 +48855,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>92</v>
@@ -48876,7 +48876,7 @@
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.78€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
@@ -48893,17 +48893,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>8804250006</t>
+          <t>8802050001</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>JASMINUM SAMBAC</t>
+          <t>CYCA REVOLUTA</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>C21A150</t>
+          <t>26LA40</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
@@ -48937,7 +48937,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M50" s="4" t="n">
         <v>0</v>
@@ -48946,7 +48946,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>92</v>
@@ -48967,7 +48967,7 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 128.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
@@ -48994,7 +48994,7 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>35LD16</t>
+          <t>18LD10</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -49028,7 +49028,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51" s="4" t="n">
         <v>0</v>
@@ -49037,7 +49037,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>92</v>
@@ -49058,7 +49058,7 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
@@ -49075,17 +49075,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>8103390000</t>
+          <t>8106070017</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>SYRINGA</t>
+          <t>LEPTOSPERMUM SCOPARIUM</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>4LA70</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -49119,7 +49119,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M52" s="4" t="n">
         <v>0</v>
@@ -49128,16 +49128,16 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>240</v>
+        <v>306.67</v>
       </c>
       <c r="S52" s="4" t="n">
         <v>30</v>
@@ -49149,12 +49149,12 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
-          <t>Compra 20/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W52" s="3" t="inlineStr">
@@ -49166,17 +49166,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>8501150004</t>
+          <t>8102040002</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
+          <t>PHYLLOSTACHYS BISSETTI</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>20LA200</t>
+          <t>10LA225</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -49186,12 +49186,12 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -49210,7 +49210,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M53" s="4" t="n">
         <v>0</v>
@@ -49219,19 +49219,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T53" s="6" t="inlineStr">
         <is>
@@ -49240,12 +49240,12 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="3" t="inlineStr">
@@ -49257,17 +49257,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>8802090001</t>
+          <t>8404070001</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI</t>
+          <t>RIBES RUBRUM GROSELLA BLANCA</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>35LD50</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -49277,12 +49277,12 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G54" s="3" t="n">
@@ -49301,7 +49301,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M54" s="4" t="n">
         <v>0</v>
@@ -49310,19 +49310,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R54" s="3" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
@@ -49331,12 +49331,12 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W54" s="3" t="inlineStr">
@@ -49348,17 +49348,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>8401020075</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>DIOSPYROS KAKI</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>T20A50</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -49368,12 +49368,12 @@
       </c>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -49392,7 +49392,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M55" s="4" t="n">
         <v>0</v>
@@ -49401,19 +49401,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>223.33</v>
+        <v>13.33</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
@@ -49422,12 +49422,12 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Compra 25/03/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
@@ -49439,17 +49439,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>8303020010</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>ROSA COPA 1/2 FUSTA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>7LA120</t>
+          <t>35LD16</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -49459,12 +49459,12 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -49483,7 +49483,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M56" s="4" t="n">
         <v>0</v>
@@ -49492,7 +49492,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>92</v>
@@ -49513,7 +49513,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
@@ -49530,17 +49530,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>8106050001</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>PHOTINIA FRASERI RED ROBIN</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>30LD8</t>
+          <t>45LA160</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -49550,12 +49550,12 @@
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -49589,10 +49589,10 @@
         <v>92</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R57" s="3" t="n">
-        <v>210</v>
+        <v>306.67</v>
       </c>
       <c r="S57" s="4" t="n">
         <v>30</v>
@@ -49604,12 +49604,12 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="3" t="inlineStr">
@@ -49621,17 +49621,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8802090002</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>10LA180</t>
+          <t>70LA180</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -49641,12 +49641,12 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -49665,7 +49665,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M58" s="4" t="n">
         <v>0</v>
@@ -49674,7 +49674,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>92</v>
@@ -49695,7 +49695,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 95.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 137.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
@@ -49712,17 +49712,17 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>8802110001</t>
+          <t>8501150004</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>YUCCA ELEGANS</t>
+          <t>MAGNOLIA GRANDIFLORA GALLISONENSIS TRONCO ALTO</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>20LA200</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
@@ -49732,12 +49732,12 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
@@ -49756,7 +49756,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M59" s="4" t="n">
         <v>0</v>
@@ -49765,16 +49765,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>10</v>
+        <v>56.67</v>
       </c>
       <c r="S59" s="4" t="n">
         <v>0</v>
@@ -49791,7 +49791,7 @@
       </c>
       <c r="V59" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W59" s="3" t="inlineStr">
@@ -49803,17 +49803,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>8802080001</t>
+          <t>8104230061</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX</t>
+          <t>BARTLETTINA SORDIDA</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -49823,12 +49823,12 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G60" s="3" t="n">
@@ -49862,10 +49862,10 @@
         <v>92</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>306.67</v>
+        <v>153.33</v>
       </c>
       <c r="S60" s="4" t="n">
         <v>30</v>
@@ -49877,12 +49877,12 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 19.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/04/2025</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
@@ -49894,17 +49894,17 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>8401020033</t>
+          <t>8203010018</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>MELOCOTON  VID PRECOZ</t>
+          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>15LA180</t>
+          <t>2I5LA30</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -49914,12 +49914,12 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
@@ -49938,7 +49938,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" s="4" t="n">
         <v>0</v>
@@ -49947,19 +49947,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>126.67</v>
+        <v>53.33</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T61" s="6" t="inlineStr">
         <is>
@@ -49968,12 +49968,12 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W61" s="3" t="inlineStr">
@@ -49985,17 +49985,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>8802080002</t>
+          <t>8401020032</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>PHORMIUM TENAX VARIEGATA</t>
+          <t>MANZANO REINETA</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>3LA40</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -50005,12 +50005,12 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G62" s="3" t="n">
@@ -50029,7 +50029,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M62" s="4" t="n">
         <v>0</v>
@@ -50038,19 +50038,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T62" s="6" t="inlineStr">
         <is>
@@ -50059,12 +50059,12 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 24.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
@@ -50076,17 +50076,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>8804110002</t>
+          <t>8401020054</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA ESPALDERA</t>
+          <t>CIRUELO CLAUDIA ENANO</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>10LA100</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -50096,12 +50096,12 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
@@ -50120,7 +50120,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M63" s="4" t="n">
         <v>0</v>
@@ -50129,19 +50129,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>13.33</v>
+        <v>306.67</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T63" s="6" t="inlineStr">
         <is>
@@ -50150,12 +50150,12 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="3" t="inlineStr">
@@ -50167,17 +50167,17 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8404140002</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>18LD8</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
@@ -50187,12 +50187,12 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
@@ -50211,7 +50211,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M64" s="4" t="n">
         <v>0</v>
@@ -50220,19 +50220,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="3" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="R64" s="3" t="n">
-        <v>306.67</v>
+        <v>83.33</v>
       </c>
       <c r="S64" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T64" s="6" t="inlineStr">
         <is>
@@ -50241,12 +50241,12 @@
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/05/2025</t>
         </is>
       </c>
       <c r="W64" s="3" t="inlineStr">
@@ -50258,17 +50258,17 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>8802030001</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>CHAMAEROPS HUMILIS</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>160LA120</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
@@ -50278,12 +50278,12 @@
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
@@ -50332,7 +50332,7 @@
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 229.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
@@ -50349,17 +50349,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>8203010010</t>
+          <t>8401020067</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>JUNIPERUS PROCUMBENS NANA</t>
+          <t>MELOCOTONERO BABY GOLD</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>2I5LA20</t>
+          <t>5LA100</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -50369,12 +50369,12 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G66" s="3" t="n">
@@ -50393,7 +50393,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M66" s="4" t="n">
         <v>0</v>
@@ -50402,19 +50402,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T66" s="6" t="inlineStr">
         <is>
@@ -50423,12 +50423,12 @@
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="3" t="inlineStr">
@@ -50440,17 +50440,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8103390000</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>SYRINGA</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>18LD10</t>
+          <t>2LA60</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -50460,12 +50460,12 @@
       </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
@@ -50484,7 +50484,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="M67" s="4" t="n">
         <v>0</v>
@@ -50493,16 +50493,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="R67" s="3" t="n">
-        <v>306.67</v>
+        <v>240</v>
       </c>
       <c r="S67" s="4" t="n">
         <v>30</v>
@@ -50514,12 +50514,12 @@
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 52.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 20/03/2025</t>
         </is>
       </c>
       <c r="W67" s="3" t="inlineStr">
@@ -50531,17 +50531,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>8104230061</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>BARTLETTINA SORDIDA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -50575,7 +50575,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68" s="4" t="n">
         <v>0</v>
@@ -50584,19 +50584,19 @@
         <v>0</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q68" s="3" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="R68" s="3" t="n">
-        <v>153.33</v>
+        <v>56.67</v>
       </c>
       <c r="S68" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T68" s="6" t="inlineStr">
         <is>
@@ -50605,12 +50605,12 @@
       </c>
       <c r="U68" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W68" s="3" t="inlineStr">
@@ -50622,17 +50622,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>8501040006</t>
+          <t>8101140001</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>CAMELIA SPRING FESTIVAL</t>
+          <t>LIQUIDAMBAR STYRACIFLUA</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
@@ -50642,12 +50642,12 @@
       </c>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
@@ -50666,7 +50666,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M69" s="4" t="n">
         <v>0</v>
@@ -50675,7 +50675,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>92</v>
@@ -50696,7 +50696,7 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 91.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
@@ -50713,17 +50713,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>8401020040</t>
+          <t>8106050001</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>NISPERO ARGELINO</t>
+          <t>PHOTINIA FRASERI RED ROBIN</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>10LA150</t>
+          <t>30LD10</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -50733,12 +50733,12 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G70" s="3" t="n">
@@ -50772,13 +50772,13 @@
         <v>92</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="R70" s="3" t="n">
-        <v>126.67</v>
+        <v>210</v>
       </c>
       <c r="S70" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T70" s="6" t="inlineStr">
         <is>
@@ -50787,12 +50787,12 @@
       </c>
       <c r="U70" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W70" s="3" t="inlineStr">
@@ -50804,17 +50804,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>8804280004</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>PITTOSPORUM TOBIRA NANA</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>5LA20</t>
+          <t>25LD12</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -50848,7 +50848,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" s="4" t="n">
         <v>0</v>
@@ -50857,7 +50857,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>92</v>
@@ -50878,7 +50878,7 @@
       </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="3" t="inlineStr">
@@ -50895,17 +50895,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>8804240001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>25LD12</t>
+          <t>30LD12</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -50915,12 +50915,12 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G72" s="3" t="n">
@@ -50954,13 +50954,13 @@
         <v>92</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S72" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T72" s="6" t="inlineStr">
         <is>
@@ -50969,12 +50969,12 @@
       </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W72" s="3" t="inlineStr">
@@ -50986,17 +50986,17 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>8501150003</t>
+          <t>8803010001</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>MAGNOLIA GRANDIFLORA</t>
+          <t>NERIUM OLEANDER</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>50LD12</t>
+          <t>20LD10</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -51006,12 +51006,12 @@
       </c>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
@@ -51030,7 +51030,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M73" s="4" t="n">
         <v>0</v>
@@ -51039,16 +51039,16 @@
         <v>0</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P73" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="R73" s="3" t="n">
-        <v>306.67</v>
+        <v>210</v>
       </c>
       <c r="S73" s="4" t="n">
         <v>30</v>
@@ -51060,12 +51060,12 @@
       </c>
       <c r="U73" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 405.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/03/2025</t>
         </is>
       </c>
       <c r="W73" s="3" t="inlineStr">
@@ -51077,17 +51077,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>8401020067</t>
+          <t>8203010003</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>MELOCOTONERO BABY GOLD</t>
+          <t>JUNIPERUS HORIZONTALIS "ANDORRA COMPACT"</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>5LA100</t>
+          <t>2I5LA40</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -51097,12 +51097,12 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G74" s="3" t="n">
@@ -51121,7 +51121,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M74" s="4" t="n">
         <v>0</v>
@@ -51130,19 +51130,19 @@
         <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q74" s="3" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R74" s="3" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S74" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T74" s="6" t="inlineStr">
         <is>
@@ -51151,12 +51151,12 @@
       </c>
       <c r="U74" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W74" s="3" t="inlineStr">
@@ -51168,17 +51168,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>8203010018</t>
+          <t>8501150003</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>JUNIPERUS SABINA TAMARISCIFOLIA</t>
+          <t>MAGNOLIA GRANDIFLORA</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>2I5LA30</t>
+          <t>18LA220</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -51188,12 +51188,12 @@
       </c>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>CONIFERAS</t>
+          <t>PLANTAS TIERRA DE BREZO</t>
         </is>
       </c>
       <c r="G75" s="3" t="n">
@@ -51212,7 +51212,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M75" s="4" t="n">
         <v>0</v>
@@ -51221,19 +51221,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="R75" s="3" t="n">
-        <v>53.33</v>
+        <v>306.67</v>
       </c>
       <c r="S75" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T75" s="6" t="inlineStr">
         <is>
@@ -51242,12 +51242,12 @@
       </c>
       <c r="U75" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 178.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="3" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W75" s="3" t="inlineStr">
@@ -51259,17 +51259,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>8101170001</t>
+          <t>8101040002</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>MORUS FRUITLESS</t>
+          <t>OLEA EUROPAEA BONSAI</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>20LD10</t>
+          <t>70LA150</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -51318,13 +51318,13 @@
         <v>92</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R76" s="3" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S76" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T76" s="6" t="inlineStr">
         <is>
@@ -51333,12 +51333,12 @@
       </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W76" s="3" t="inlineStr">
@@ -51350,17 +51350,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>8401020042</t>
+          <t>8804280004</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>PARAGUAYO</t>
+          <t>PITTOSPORUM TOBIRA NANA</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>15LA150</t>
+          <t>5LA20</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -51370,12 +51370,12 @@
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G77" s="3" t="n">
@@ -51394,7 +51394,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" s="4" t="n">
         <v>0</v>
@@ -51403,19 +51403,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>126.67</v>
+        <v>306.67</v>
       </c>
       <c r="S77" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T77" s="6" t="inlineStr">
         <is>
@@ -51424,12 +51424,12 @@
       </c>
       <c r="U77" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.84€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="3" t="inlineStr">
         <is>
-          <t>Compra 23/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W77" s="3" t="inlineStr">
@@ -51441,17 +51441,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>8802110004</t>
+          <t>8804110008</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>YUCCA ELEPHANTIPES JEWEL</t>
+          <t>DIPLADENIA TRIPLE ARCO</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>4LA50</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -51485,7 +51485,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M78" s="4" t="n">
         <v>0</v>
@@ -51494,19 +51494,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="S78" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T78" s="6" t="inlineStr">
         <is>
@@ -51515,12 +51515,12 @@
       </c>
       <c r="U78" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W78" s="3" t="inlineStr">
@@ -51532,17 +51532,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>8701160000</t>
+          <t>8804110002</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>STEPHANOTIS JASMINOIDES</t>
+          <t>DIPLADENIA ESPALDERA</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>C40A180</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -51552,12 +51552,12 @@
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TREPADORAS</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G79" s="3" t="n">
@@ -51576,7 +51576,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M79" s="4" t="n">
         <v>0</v>
@@ -51585,19 +51585,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q79" s="3" t="n">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R79" s="3" t="n">
-        <v>306.67</v>
+        <v>130</v>
       </c>
       <c r="S79" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T79" s="6" t="inlineStr">
         <is>
@@ -51606,12 +51606,12 @@
       </c>
       <c r="U79" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.58€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 22/04/2025</t>
         </is>
       </c>
       <c r="W79" s="3" t="inlineStr">
@@ -51623,17 +51623,17 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>8101040002</t>
+          <t>8203010014</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>OLEA EUROPAEA BONSAI</t>
+          <t>JUNIPERUS HORIZONTALIS BLUE CHIP</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>70LA150</t>
+          <t>2I5LA20</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -51643,12 +51643,12 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G80" s="3" t="n">
@@ -51667,7 +51667,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M80" s="4" t="n">
         <v>0</v>
@@ -51676,19 +51676,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q80" s="3" t="n">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="R80" s="3" t="n">
-        <v>306.67</v>
+        <v>53.33</v>
       </c>
       <c r="S80" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T80" s="6" t="inlineStr">
         <is>
@@ -51697,12 +51697,12 @@
       </c>
       <c r="U80" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W80" s="3" t="inlineStr">
@@ -51805,17 +51805,17 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>8803010001</t>
+          <t>8203010005</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>NERIUM OLEANDER</t>
+          <t>JUNIPERUS SQUAMATA BLUE STAR</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>35LD14</t>
+          <t>2I5LA25</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -51825,12 +51825,12 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>82</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>CONIFERAS</t>
         </is>
       </c>
       <c r="G82" s="3" t="n">
@@ -51849,7 +51849,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M82" s="4" t="n">
         <v>0</v>
@@ -51858,19 +51858,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q82" s="3" t="n">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="R82" s="3" t="n">
-        <v>210</v>
+        <v>53.33</v>
       </c>
       <c r="S82" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T82" s="6" t="inlineStr">
         <is>
@@ -51879,12 +51879,12 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W82" s="3" t="inlineStr">
@@ -51896,17 +51896,17 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>8103110000</t>
+          <t>8802100001</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>CORNUX MIX</t>
+          <t>WASHINGTONIA ROBUSTA</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>C19A60</t>
+          <t>70LA200</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -51916,12 +51916,12 @@
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>ARBOLES/ARBUSTOS DECO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G83" s="3" t="n">
@@ -51940,7 +51940,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M83" s="4" t="n">
         <v>0</v>
@@ -51949,16 +51949,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P83" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q83" s="3" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="R83" s="3" t="n">
-        <v>293.33</v>
+        <v>306.67</v>
       </c>
       <c r="S83" s="4" t="n">
         <v>30</v>
@@ -51970,12 +51970,12 @@
       </c>
       <c r="U83" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 87.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="3" t="inlineStr">
         <is>
-          <t>Compra 04/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W83" s="3" t="inlineStr">
@@ -51987,17 +51987,17 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>8501110005</t>
+          <t>8802030001</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>HYDRANGEA MAGICAL</t>
+          <t>CHAMAEROPS HUMILIS</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>3I5LA40</t>
+          <t>50LA80</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -52007,12 +52007,12 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G84" s="3" t="n">
@@ -52031,7 +52031,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M84" s="4" t="n">
         <v>0</v>
@@ -52040,19 +52040,19 @@
         <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q84" s="3" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="R84" s="3" t="n">
-        <v>10</v>
+        <v>306.67</v>
       </c>
       <c r="S84" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T84" s="6" t="inlineStr">
         <is>
@@ -52061,12 +52061,12 @@
       </c>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W84" s="3" t="inlineStr">
@@ -52078,17 +52078,17 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>8401020054</t>
+          <t>8804240001</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>CIRUELO CLAUDIA ENANO</t>
+          <t>OLEA EUROPAEA</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>10LA100</t>
+          <t>18LD8</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
@@ -52098,12 +52098,12 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
@@ -52122,7 +52122,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M85" s="4" t="n">
         <v>0</v>
@@ -52131,7 +52131,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P85" s="3" t="n">
         <v>92</v>
@@ -52152,7 +52152,7 @@
       </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="3" t="inlineStr">
@@ -52169,17 +52169,17 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>8404140002</t>
+          <t>8802080000</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>LYCIUM BARBARUM (BAYAS GOJI)</t>
+          <t>PHORMIUM</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>2LA60</t>
+          <t>10LA60</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -52189,12 +52189,12 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>FRUTALES</t>
+          <t>PLANTAS CLIMA MEDITERRANEO</t>
         </is>
       </c>
       <c r="G86" s="3" t="n">
@@ -52228,13 +52228,13 @@
         <v>92</v>
       </c>
       <c r="Q86" s="3" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="R86" s="3" t="n">
-        <v>83.33</v>
+        <v>306.67</v>
       </c>
       <c r="S86" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T86" s="6" t="inlineStr">
         <is>
@@ -52243,12 +52243,12 @@
       </c>
       <c r="U86" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 102.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="3" t="inlineStr">
@@ -52260,17 +52260,17 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>8802090002</t>
+          <t>8401020033</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>TRACHYCARPUS FORTUNEI GRUPO</t>
+          <t>MELOCOTON  VID PRECOZ</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>45LA160</t>
+          <t>15LA180</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
@@ -52280,12 +52280,12 @@
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G87" s="3" t="n">
@@ -52319,13 +52319,13 @@
         <v>92</v>
       </c>
       <c r="Q87" s="3" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="R87" s="3" t="n">
-        <v>306.67</v>
+        <v>126.67</v>
       </c>
       <c r="S87" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T87" s="6" t="inlineStr">
         <is>
@@ -52334,12 +52334,12 @@
       </c>
       <c r="U87" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.47€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W87" s="3" t="inlineStr">
@@ -52351,17 +52351,17 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>8501030001</t>
+          <t>8101170001</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>GARDENIA JASMINOIDE</t>
+          <t>MORUS FRUITLESS</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>1I6LA20</t>
+          <t>45LD14</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
@@ -52371,12 +52371,12 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS TIERRA DE BREZO</t>
+          <t>ARBOLES/ARBUSTOS DECO</t>
         </is>
       </c>
       <c r="G88" s="3" t="n">
@@ -52395,7 +52395,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M88" s="4" t="n">
         <v>0</v>
@@ -52404,16 +52404,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q88" s="3" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="R88" s="3" t="n">
-        <v>10</v>
+        <v>56.67</v>
       </c>
       <c r="S88" s="4" t="n">
         <v>0</v>
@@ -52430,7 +52430,7 @@
       </c>
       <c r="V88" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W88" s="3" t="inlineStr">
@@ -52442,17 +52442,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>8804110004</t>
+          <t>8401020040</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>DIPLADENIA DOBLE ARCO</t>
+          <t>NISPERO ARGELINO</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>C25A120</t>
+          <t>10LA150</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
@@ -52462,12 +52462,12 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>84</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS CLIMA MEDITERRANEO</t>
+          <t>FRUTALES</t>
         </is>
       </c>
       <c r="G89" s="3" t="n">
@@ -52486,7 +52486,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M89" s="4" t="n">
         <v>0</v>
@@ -52495,16 +52495,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q89" s="3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R89" s="3" t="n">
-        <v>130</v>
+        <v>126.67</v>
       </c>
       <c r="S89" s="4" t="n">
         <v>20</v>
@@ -52521,7 +52521,7 @@
       </c>
       <c r="V89" s="3" t="inlineStr">
         <is>
-          <t>Compra 22/04/2025</t>
+          <t>Compra 23/04/2025</t>
         </is>
       </c>
       <c r="W89" s="3" t="inlineStr">
